--- a/jacobi/src/test/resources/jacobi/test/data/QRDecompTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/QRDecompTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4x4" sheetId="1" r:id="rId1"/>
@@ -557,7 +557,7 @@
         <v>0.1818465431766623</v>
       </c>
       <c r="V4">
-        <f t="shared" ref="V4:V6" si="7">-2*Q4</f>
+        <f t="shared" ref="V4:V5" si="7">-2*Q4</f>
         <v>5.1472836184393952E-2</v>
       </c>
     </row>
@@ -611,7 +611,7 @@
         <v>-0.65166682397605369</v>
       </c>
       <c r="T5">
-        <f t="shared" ref="T4:T6" si="9">-2*O5</f>
+        <f t="shared" ref="T5:T6" si="9">-2*O5</f>
         <v>0.1818465431766623</v>
       </c>
       <c r="U5">
@@ -1245,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1438,7 +1438,7 @@
         <v>-2.9286531448471775E-2</v>
       </c>
       <c r="Z4">
-        <f t="shared" ref="Z4:Z8" si="6">-2*S4</f>
+        <f t="shared" ref="Z4:Z7" si="6">-2*S4</f>
         <v>2.4792006953561381E-2</v>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
         <v>17.890774381483105</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L4:L8" si="8">J5/K$3</f>
+        <f t="shared" ref="L5:L8" si="8">J5/K$3</f>
         <v>0.31447041514456525</v>
       </c>
       <c r="N5">
@@ -1496,7 +1496,7 @@
         <v>0.55100147994561699</v>
       </c>
       <c r="V5">
-        <f t="shared" ref="V4:V8" si="9">-2*O5</f>
+        <f t="shared" ref="V5:V8" si="9">-2*O5</f>
         <v>5.2534397806638114E-2</v>
       </c>
       <c r="W5">
@@ -3659,7 +3659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:C47"/>
     </sheetView>
   </sheetViews>
@@ -3874,7 +3874,7 @@
         <v>-2.4374149440407666E-2</v>
       </c>
       <c r="AC4">
-        <f t="shared" ref="AC4:AC11" si="10">-2*S4</f>
+        <f t="shared" ref="AC4:AC10" si="10">-2*S4</f>
         <v>3.6967190097459044E-3</v>
       </c>
     </row>
@@ -3932,7 +3932,7 @@
         <v>-0.31787524038925874</v>
       </c>
       <c r="V5">
-        <f t="shared" ref="V4:V11" si="12">-2*L5</f>
+        <f t="shared" ref="V5:V11" si="12">-2*L5</f>
         <v>6.1270536628637948E-2</v>
       </c>
       <c r="W5">
@@ -6178,1021 +6178,1021 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">50*RAND()-25</f>
-        <v>7.4193445677438277</v>
+        <v>15.308224611761403</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:H16" ca="1" si="0">50*RAND()-25</f>
-        <v>-1.7687877222233261</v>
+        <v>22.984133998297075</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>14.490137871207445</v>
+        <v>21.84343017875603</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2715251887752288E-2</v>
+        <v>-1.8567254935900763</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.4806682446350976</v>
+        <v>10.9057534969957</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.769262134119892</v>
+        <v>22.802448168595909</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.301554832642715</v>
+        <v>-9.4269620263939427</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.104215070370927</v>
+        <v>-23.160531639755344</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:H30" ca="1" si="1">50*RAND()-25</f>
-        <v>-13.033042242055808</v>
+        <v>24.207902149581905</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.361263615048049</v>
+        <v>-7.6721234257732576</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>-22.600502615386166</v>
+        <v>23.290698540481422</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>12.334068775858356</v>
+        <v>-1.4054911922381521</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.8664625076231331</v>
+        <v>-17.700765809607745</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.2620195791582063</v>
+        <v>16.321389061276115</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.204933600705012</v>
+        <v>-1.2484626546566346</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.20206185883071</v>
+        <v>-12.367620167683102</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9652910668701118</v>
+        <v>-12.86981844643525</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>10.792151676991018</v>
+        <v>7.4749568972782683</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4711643522438393</v>
+        <v>-20.979750816760124</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5191571501499439</v>
+        <v>14.471963631800385</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.660440034076235</v>
+        <v>-21.063388964069048</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.728737044907176</v>
+        <v>-21.89080042262918</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.486803697810824</v>
+        <v>21.580957747662254</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.84927718698158827</v>
+        <v>-20.646671200934364</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1278828080318597</v>
+        <v>4.1083589212718081</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.18242676161828086</v>
+        <v>-5.2247484091223875</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.218910382974627</v>
+        <v>9.6397450005120291</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3760567370203809</v>
+        <v>16.185665451574131</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.641686756184143</v>
+        <v>2.105710899561636</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>20.322106896856667</v>
+        <v>-3.7557480256106217</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.474877633892518</v>
+        <v>11.445673979188456</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.6276422763276166</v>
+        <v>-1.8386423435257555</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.907297152751383</v>
+        <v>9.8430671034582531</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.197673152276725</v>
+        <v>21.25258896543987</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>22.230407144161035</v>
+        <v>-0.57933916864836732</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21182056465172749</v>
+        <v>16.577484019985143</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>21.47933645867365</v>
+        <v>-0.98898077406329321</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>19.396368860822541</v>
+        <v>19.836602786445305</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>24.700959044751961</v>
+        <v>20.471245067729207</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.39296591450954</v>
+        <v>-20.357600327367464</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.597218888498212</v>
+        <v>12.890489181224758</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6213855408990305</v>
+        <v>11.517092649364393</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>15.088089291654548</v>
+        <v>-1.0773993345194306</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.37361728202224</v>
+        <v>-11.303163706045011</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3210631647936779</v>
+        <v>21.025119258328118</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>12.999341434470431</v>
+        <v>20.934123461671085</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9561361551827616</v>
+        <v>-19.116466104214581</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66826026475850853</v>
+        <v>-17.720826493597002</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.3852307186206758</v>
+        <v>-21.034652431281202</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.965152061204577</v>
+        <v>-11.790599820002463</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>19.268284062713164</v>
+        <v>10.06469677622789</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>14.120658625199397</v>
+        <v>-5.1345875270875432</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-22.719246324453291</v>
+        <v>16.120373267681224</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>18.486438723109572</v>
+        <v>-19.09514954735431</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8753923725624126</v>
+        <v>2.3611549768517968</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.967646564154219</v>
+        <v>-2.1216482784096584</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.928238757097045</v>
+        <v>0.55046764176570662</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.450856836436003</v>
+        <v>9.8962246800289506</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.499397646807324</v>
+        <v>-22.597875009179951</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5548744248020583</v>
+        <v>-0.25192327251759039</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.2833890127427239</v>
+        <v>-24.638971537257191</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0031621215655946</v>
+        <v>10.974904421690198</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0438662502685645</v>
+        <v>21.883677105218908</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>19.020762502084374</v>
+        <v>0.59873734051835115</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.4691322079213656</v>
+        <v>-0.3112834617432334</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>21.353373361143134</v>
+        <v>13.633618378339314</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>11.361589211356339</v>
+        <v>15.616009637874008</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>21.696262437194022</v>
+        <v>-10.07807569923671</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4779511739836977</v>
+        <v>-0.40390241230432622</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.069869874610049</v>
+        <v>-1.7827015175615735</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4460690182526932</v>
+        <v>-15.087754640019341</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.4035817064580698</v>
+        <v>20.308515303992834</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>10.910479472531478</v>
+        <v>11.187407015705013</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>14.426076647351188</v>
+        <v>-19.970455274965673</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.9711848148165139</v>
+        <v>-10.265312016366718</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>15.611091923652651</v>
+        <v>-22.210065028165605</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1747010737764363</v>
+        <v>-12.078386564319343</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5859331865938771</v>
+        <v>13.474153104316031</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7680054008791863</v>
+        <v>21.358273763538008</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.4807106561661101E-2</v>
+        <v>-22.832464406020307</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>21.977587693960366</v>
+        <v>12.894055998524443</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.1848415512287431</v>
+        <v>-16.372213259971417</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>10.463186528415122</v>
+        <v>-9.3560430665961931</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.8108737647488589</v>
+        <v>12.614075211877648</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.271681224437145</v>
+        <v>-6.9276326737076914</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.615739432009487</v>
+        <v>-12.452864082671805</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.434827073839454</v>
+        <v>-14.543239471548535</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2369764312608318</v>
+        <v>-4.6026693229341902</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.537309132668758</v>
+        <v>7.4977413100313655</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5888898439748189</v>
+        <v>23.156821843303739</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.142266654085354</v>
+        <v>15.790709459011488</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.24229385863999298</v>
+        <v>-10.250906350475663</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>20.407760358862994</v>
+        <v>-0.60894569670779575</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.4653308966134606</v>
+        <v>-12.601601752964275</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.723814482134173</v>
+        <v>-2.8490922916796713</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.75335648471005</v>
+        <v>6.2832617879587538</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.701726175500934</v>
+        <v>-20.49039808709756</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.387330458901793</v>
+        <v>-8.4313691956136267</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3112285497970859</v>
+        <v>9.2189422542803641</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>10.228221871198002</v>
+        <v>3.3500934898948103</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.854859191079777</v>
+        <v>-20.465101471110724</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>15.574263695526732</v>
+        <v>-19.798622286077041</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.92112145200186646</v>
+        <v>6.9119708661497512</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.342399981740513</v>
+        <v>10.761701829961289</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>12.560822998232496</v>
+        <v>23.917915993592779</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.6515178691914301</v>
+        <v>3.0367263578057191</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4486487801075612</v>
+        <v>4.0902243254134873</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.047788875624976</v>
+        <v>-18.906673679333032</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>14.159597462767785</v>
+        <v>-21.70029313794312</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.27499310530856</v>
+        <v>-10.691198116211092</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.724707970075691</v>
+        <v>4.625876299505304</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.900185047367007</v>
+        <v>-23.770159692265981</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>23.244136700347738</v>
+        <v>10.399006415857173</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.8950533808933905</v>
+        <v>-1.4367114459658339</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.808687845380728</v>
+        <v>-2.125562577205713</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.67670446536855522</v>
+        <v>-8.5281955674495045</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>17.439282890741332</v>
+        <v>14.775354727964626</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>14.438113703680408</v>
+        <v>9.7306501519790061</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8904303937036886</v>
+        <v>-10.62574730054941</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.864980169006103</v>
+        <v>19.937990090458037</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.579543605527768</v>
+        <v>-19.210910468789933</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.721277858657952</v>
+        <v>4.9528536890734323</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>23.02293507145037</v>
+        <v>-6.1837476182416964</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>17.569006211610713</v>
+        <v>6.2496992507422071</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.895000790454823</v>
+        <v>-17.673307352897883</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2779595330098452</v>
+        <v>-18.39704369226537</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.788188320379703</v>
+        <v>-11.18295019277944</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5889400632117834</v>
+        <v>4.0688068577458942</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.739960147679948</v>
+        <v>-15.617535840376256</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2250028288858239</v>
+        <v>6.3952504303532329</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>17.241411541609317</v>
+        <v>18.84427152938374</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>23.459569877003482</v>
+        <v>-0.91110895006227821</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>10.119888779437431</v>
+        <v>-9.3436332380905096</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.3559676815608306</v>
+        <v>-18.786574195632134</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.507047728625412</v>
+        <v>4.9466293591881936</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.440312839697846</v>
+        <v>-14.036105700858641</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>21.902824215056903</v>
+        <v>7.3555145930263919</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.222581495441538</v>
+        <v>2.1383574388828421</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>21.271474825276869</v>
+        <v>14.155753973478753</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.895007572066284</v>
+        <v>-1.5381761914509973</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.92214022263783946</v>
+        <v>-9.3725194843343793</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3664367402094229</v>
+        <v>-22.764346387159517</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.2918484534223111</v>
+        <v>-22.237195615054372</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.973603380379064</v>
+        <v>-6.425508698034843</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.598930861366668</v>
+        <v>5.0027586010391936</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.052395489633042</v>
+        <v>-13.786338236472545</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8053358568934144</v>
+        <v>0.34452333476871644</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>19.848613825736884</v>
+        <v>-10.839631458316484</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>10.073503880534275</v>
+        <v>13.74239491328251</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.946853334455291</v>
+        <v>18.181388748681584</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.4570281270986989</v>
+        <v>-4.8933200144314561</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0303747527005527</v>
+        <v>-5.0514254868567434</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>24.598156717489978</v>
+        <v>18.453838815889192</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.521507765925948</v>
+        <v>-20.328270057506053</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>19.080255163569539</v>
+        <v>-14.021109606975784</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>19.739194655687804</v>
+        <v>5.9683031208309245</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>21.228919130040346</v>
+        <v>23.02123816722024</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>15.075243700502007</v>
+        <v>-17.508975645463948</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.197521964467988</v>
+        <v>-9.3041542065536778</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>19.744864904164125</v>
+        <v>8.8953730363327423</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.356287735656144</v>
+        <v>-4.1654179804155973</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>18.763965006132501</v>
+        <v>-8.30477950201821</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.31677673054624123</v>
+        <v>-11.129292808279361</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>21.143157845145701</v>
+        <v>4.6910812773576396</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>11.849773742401823</v>
+        <v>-2.8172402094832734</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.526283162084507</v>
+        <v>24.51966803448736</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>18.176445191750794</v>
+        <v>18.828980491302502</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3621563364715144</v>
+        <v>-24.180543454715696</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.311462608486746</v>
+        <v>-24.710883598093712</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>11.37175021620719</v>
+        <v>-9.9305745108070553</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>24.920235103613749</v>
+        <v>7.3700014957105253</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.8811099623397496</v>
+        <v>-2.134981560745441</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>17.00246038939099</v>
+        <v>-22.378279138546169</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.5578708960025622</v>
+        <v>-16.898773919174793</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.258632524382152</v>
+        <v>11.602317477380495</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.7386404561717548</v>
+        <v>4.5511821900642282</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.347599640124347</v>
+        <v>-0.78201180443408091</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.301448765270223</v>
+        <v>-17.217330982361002</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.8231810682983358</v>
+        <v>-24.814866342242642</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>-16.629330201404699</v>
+        <v>5.3797395481790176</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.8275091134054264</v>
+        <v>5.1876575340398787</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>15.671482197381941</v>
+        <v>-23.920960217110377</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>16.342488544568518</v>
+        <v>-7.9604214049762412</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>17.792504463238068</v>
+        <v>-6.9357013268077097</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.884256505875857</v>
+        <v>-5.1460208332445632</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5625184908811143</v>
+        <v>7.8603884746392083</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.3930783597353802</v>
+        <v>24.916714454529085</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4449181571286402</v>
+        <v>-18.496844129879758</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>19.173004248342437</v>
+        <v>-15.393096480746877</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>14.810173698311111</v>
+        <v>16.007629970694772</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.9981468889902168</v>
+        <v>12.452601978697196</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>22.464486943861466</v>
+        <v>1.4359496114216377</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>7.951441665886577</v>
+        <v>10.899447782632386</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.238720740220892</v>
+        <v>13.553125419344347</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>22.512285140645126</v>
+        <v>2.8914719092622043</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>10.563655652255726</v>
+        <v>-18.652340681629969</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.843794130961616</v>
+        <v>-5.6719593199127942</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.846383101164049</v>
+        <v>19.453731555757251</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6979191964031628</v>
+        <v>6.0433988320784131</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>10.732528796425292</v>
+        <v>7.5411352669249325</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.8356313541698412</v>
+        <v>17.355640758389981</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.253765232941998</v>
+        <v>-14.294209855858043</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>-16.869994118084549</v>
+        <v>1.0968163206004284</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>17.49652792578096</v>
+        <v>-15.928698996786805</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.023014966894657</v>
+        <v>-0.53905862789265058</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>6.457732424366025</v>
+        <v>-8.6954480380737884</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.1842176620607745</v>
+        <v>9.8806943822486204</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.127109747386736</v>
+        <v>-0.36206631570309611</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.949886943093823</v>
+        <v>21.68822553967793</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5404115345316924</v>
+        <v>-10.758428889038946</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>-16.527299507435828</v>
+        <v>-19.460680162324898</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2223042167821632</v>
+        <v>7.8761460843179734</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.5451622115435892</v>
+        <v>2.2728096830230413</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1369266249230776</v>
+        <v>12.345890351938266</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6199926044632349</v>
+        <v>-9.6425509279758188</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.501970914506508</v>
+        <v>3.4200008176665513</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8998216056190991</v>
+        <v>-0.21940478253296192</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.848953121686993</v>
+        <v>1.8207009752453764</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.7950368010802151</v>
+        <v>5.1647220457809624</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3654285909115274</v>
+        <v>-8.0053394983474426</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.413365904566703</v>
+        <v>-11.651941175656304</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.17471193556827203</v>
+        <v>8.6379867351335875</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.068770599178377</v>
+        <v>-15.707519494954713</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.226007424002544</v>
+        <v>21.976118061848155</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.783765777283232</v>
+        <v>-9.5097683368564994</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>16.768305149115413</v>
+        <v>11.159946220912495</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>12.863466421433358</v>
+        <v>18.304403730818272</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0016915197216676</v>
+        <v>5.764131101201297</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3170690428557918</v>
+        <v>-9.9972879908689478</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.66445406080614</v>
+        <v>20.294436187052433</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.838982599915639</v>
+        <v>16.671208838991838</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.639482397577499</v>
+        <v>0.66085585806158775</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="1"/>
-        <v>19.890124745840112</v>
+        <v>-17.5910337111915</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>21.574653043194772</v>
+        <v>17.783343346055155</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0818749657635962</v>
+        <v>2.0867979411518185</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>-16.127402062844826</v>
+        <v>-4.9449708184065919</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.6823168500450478</v>
+        <v>8.8967501025623079</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8593191021161779</v>
+        <v>-23.010447636858629</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>6.403684068088662</v>
+        <v>16.728571097256605</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.685760324698844</v>
+        <v>-5.905012082540285</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/QRDecompTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/QRDecompTest.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="4x4" sheetId="1" r:id="rId1"/>
     <sheet name="6x6" sheetId="2" r:id="rId2"/>
     <sheet name="9x3" sheetId="4" r:id="rId3"/>
-    <sheet name="rand" sheetId="3" r:id="rId4"/>
+    <sheet name="Degen 8x3" sheetId="5" r:id="rId4"/>
+    <sheet name="rand" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
   <si>
     <t>#1</t>
   </si>
@@ -50,6 +51,9 @@
   </si>
   <si>
     <t>#5</t>
+  </si>
+  <si>
+    <t>Householder</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A48" sqref="A48:E52"/>
     </sheetView>
   </sheetViews>
@@ -3659,8 +3663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC47"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:C47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6167,10 +6171,1457 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>12.832681232845054</v>
+      </c>
+      <c r="B3">
+        <f>A3</f>
+        <v>12.832681232845054</v>
+      </c>
+      <c r="C3">
+        <v>-17.144650356428635</v>
+      </c>
+      <c r="E3">
+        <f>A3</f>
+        <v>12.832681232845054</v>
+      </c>
+      <c r="F3">
+        <f>SQRT(SUMPRODUCT(E3:E10,E3:E10))</f>
+        <v>40.80706333490032</v>
+      </c>
+      <c r="G3">
+        <f>E3+F3</f>
+        <v>53.639744567745375</v>
+      </c>
+      <c r="H3">
+        <f>SQRT(SUMPRODUCT(G3:G10,G3:G10))</f>
+        <v>66.164649985379057</v>
+      </c>
+      <c r="I3">
+        <f>G3/H$3</f>
+        <v>0.81070094951909499</v>
+      </c>
+      <c r="K3">
+        <f t="array" ref="K3:R10">MMULT(I3:I10,TRANSPOSE(I3:I10))</f>
+        <v>0.65723602955116223</v>
+      </c>
+      <c r="L3">
+        <v>6.5830764327154623E-2</v>
+      </c>
+      <c r="M3">
+        <v>0.14673621764819494</v>
+      </c>
+      <c r="N3">
+        <v>9.5177956310034187E-2</v>
+      </c>
+      <c r="O3">
+        <v>0.30434310046074525</v>
+      </c>
+      <c r="P3">
+        <v>0.22138174048057704</v>
+      </c>
+      <c r="Q3">
+        <v>-9.4550445593212119E-3</v>
+      </c>
+      <c r="R3">
+        <v>-0.22051935257058056</v>
+      </c>
+      <c r="T3">
+        <f>1-2*K3</f>
+        <v>-0.31447205910232445</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:AA3" si="0">-2*L3</f>
+        <v>-0.13166152865430925</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>-0.29347243529638989</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>-0.19035591262006837</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>-0.60868620092149051</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>-0.44276348096115409</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>1.8910089118642424E-2</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="0"/>
+        <v>0.44103870514116111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5.3727203385661895</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B10" si="1">A4</f>
+        <v>5.3727203385661895</v>
+      </c>
+      <c r="C4">
+        <v>-4.8811427524532647</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E10" si="2">A4</f>
+        <v>5.3727203385661895</v>
+      </c>
+      <c r="G4">
+        <f>E4</f>
+        <v>5.3727203385661895</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I10" si="3">G4/H$3</f>
+        <v>8.1202278554385818E-2</v>
+      </c>
+      <c r="K4">
+        <v>6.5830764327154623E-2</v>
+      </c>
+      <c r="L4">
+        <v>6.5938100424240672E-3</v>
+      </c>
+      <c r="M4">
+        <v>1.469754689019895E-2</v>
+      </c>
+      <c r="N4">
+        <v>9.5333142573832894E-3</v>
+      </c>
+      <c r="O4">
+        <v>3.0483932742867439E-2</v>
+      </c>
+      <c r="P4">
+        <v>2.2174270016610053E-2</v>
+      </c>
+      <c r="Q4">
+        <v>-9.4704608709977498E-4</v>
+      </c>
+      <c r="R4">
+        <v>-2.2087890614524722E-2</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T10" si="4">-2*K4</f>
+        <v>-0.13166152865430925</v>
+      </c>
+      <c r="U4">
+        <f>1-2*L4</f>
+        <v>0.98681237991515192</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V10" si="5">-2*M4</f>
+        <v>-2.93950937803979E-2</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W10" si="6">-2*N4</f>
+        <v>-1.9066628514766579E-2</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X10" si="7">-2*O4</f>
+        <v>-6.0967865485734879E-2</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y10" si="8">-2*P4</f>
+        <v>-4.4348540033220106E-2</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z10" si="9">-2*Q4</f>
+        <v>1.89409217419955E-3</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" ref="AA4:AA10" si="10">-2*R4</f>
+        <v>4.4175781229049443E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>11.975748254187216</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>11.975748254187216</v>
+      </c>
+      <c r="C5">
+        <v>-2.0862583502972534</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>11.975748254187216</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G10" si="11">E5</f>
+        <v>11.975748254187216</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0.18099919302578635</v>
+      </c>
+      <c r="K5">
+        <v>0.14673621764819494</v>
+      </c>
+      <c r="L5">
+        <v>1.469754689019895E-2</v>
+      </c>
+      <c r="M5">
+        <v>3.2760707875985867E-2</v>
+      </c>
+      <c r="N5">
+        <v>2.1249676956933149E-2</v>
+      </c>
+      <c r="O5">
+        <v>6.7948428602479696E-2</v>
+      </c>
+      <c r="P5">
+        <v>4.9426260572900324E-2</v>
+      </c>
+      <c r="Q5">
+        <v>-2.1109577289568503E-3</v>
+      </c>
+      <c r="R5">
+        <v>-4.923372161525244E-2</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="4"/>
+        <v>-0.29347243529638989</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ref="U4:U10" si="12">-2*L5</f>
+        <v>-2.93950937803979E-2</v>
+      </c>
+      <c r="V5">
+        <f>1-2*M5</f>
+        <v>0.93447858424802832</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="6"/>
+        <v>-4.2499353913866299E-2</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="7"/>
+        <v>-0.13589685720495939</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="8"/>
+        <v>-9.8852521145800648E-2</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="9"/>
+        <v>4.2219154579137006E-3</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="10"/>
+        <v>9.8467443230504881E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7.7678657824598787</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>7.7678657824598787</v>
+      </c>
+      <c r="C6">
+        <v>22.110470108929739</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>7.7678657824598787</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="11"/>
+        <v>7.7678657824598787</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0.11740205357659124</v>
+      </c>
+      <c r="K6">
+        <v>9.5177956310034187E-2</v>
+      </c>
+      <c r="L6">
+        <v>9.5333142573832894E-3</v>
+      </c>
+      <c r="M6">
+        <v>2.1249676956933149E-2</v>
+      </c>
+      <c r="N6">
+        <v>1.37832421840008E-2</v>
+      </c>
+      <c r="O6">
+        <v>4.40735945938555E-2</v>
+      </c>
+      <c r="P6">
+        <v>3.2059504768308586E-2</v>
+      </c>
+      <c r="Q6">
+        <v>-1.3692368913357745E-3</v>
+      </c>
+      <c r="R6">
+        <v>-3.1934617642330416E-2</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="4"/>
+        <v>-0.19035591262006837</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="12"/>
+        <v>-1.9066628514766579E-2</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="5"/>
+        <v>-4.2499353913866299E-2</v>
+      </c>
+      <c r="W6">
+        <f>1-2*N6</f>
+        <v>0.97243351563199842</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="7"/>
+        <v>-8.8147189187711E-2</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="8"/>
+        <v>-6.4119009536617172E-2</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="9"/>
+        <v>2.738473782671549E-3</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="10"/>
+        <v>6.3869235284660833E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>24.838696352083119</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>24.838696352083119</v>
+      </c>
+      <c r="C7">
+        <v>12.761744712530202</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>24.838696352083119</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="11"/>
+        <v>24.838696352083119</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0.37540735661069663</v>
+      </c>
+      <c r="K7">
+        <v>0.30434310046074525</v>
+      </c>
+      <c r="L7">
+        <v>3.0483932742867439E-2</v>
+      </c>
+      <c r="M7">
+        <v>6.7948428602479696E-2</v>
+      </c>
+      <c r="N7">
+        <v>4.40735945938555E-2</v>
+      </c>
+      <c r="O7">
+        <v>0.14093068339743076</v>
+      </c>
+      <c r="P7">
+        <v>0.1025141688127888</v>
+      </c>
+      <c r="Q7">
+        <v>-4.3783016249785717E-3</v>
+      </c>
+      <c r="R7">
+        <v>-0.10211482702608331</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="4"/>
+        <v>-0.60868620092149051</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="12"/>
+        <v>-6.0967865485734879E-2</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="5"/>
+        <v>-0.13589685720495939</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="6"/>
+        <v>-8.8147189187711E-2</v>
+      </c>
+      <c r="X7">
+        <f>1-2*O7</f>
+        <v>0.71813863320513849</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="8"/>
+        <v>-0.20502833762557759</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="9"/>
+        <v>8.7566032499571435E-3</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="10"/>
+        <v>0.20422965405216661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>18.06787740996274</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>18.06787740996274</v>
+      </c>
+      <c r="C8">
+        <v>19.123227480634199</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>18.06787740996274</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="11"/>
+        <v>18.06787740996274</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0.27307448031472015</v>
+      </c>
+      <c r="K8">
+        <v>0.22138174048057704</v>
+      </c>
+      <c r="L8">
+        <v>2.2174270016610053E-2</v>
+      </c>
+      <c r="M8">
+        <v>4.9426260572900324E-2</v>
+      </c>
+      <c r="N8">
+        <v>3.2059504768308586E-2</v>
+      </c>
+      <c r="O8">
+        <v>0.1025141688127888</v>
+      </c>
+      <c r="P8">
+        <v>7.4569671799154483E-2</v>
+      </c>
+      <c r="Q8">
+        <v>-3.1848135627826199E-3</v>
+      </c>
+      <c r="R8">
+        <v>-7.427918721233899E-2</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="4"/>
+        <v>-0.44276348096115409</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="12"/>
+        <v>-4.4348540033220106E-2</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="5"/>
+        <v>-9.8852521145800648E-2</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="6"/>
+        <v>-6.4119009536617172E-2</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="7"/>
+        <v>-0.20502833762557759</v>
+      </c>
+      <c r="Y8">
+        <f>1-2*P8</f>
+        <v>0.85086065640169106</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="9"/>
+        <v>6.3696271255652397E-3</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="10"/>
+        <v>0.14855837442467798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-0.77166520433305053</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>-0.77166520433305053</v>
+      </c>
+      <c r="C9">
+        <v>15.953500007153757</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>-0.77166520433305053</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="11"/>
+        <v>-0.77166520433305053</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>-1.1662801881421147E-2</v>
+      </c>
+      <c r="K9">
+        <v>-9.4550445593212119E-3</v>
+      </c>
+      <c r="L9">
+        <v>-9.4704608709977498E-4</v>
+      </c>
+      <c r="M9">
+        <v>-2.1109577289568503E-3</v>
+      </c>
+      <c r="N9">
+        <v>-1.3692368913357745E-3</v>
+      </c>
+      <c r="O9">
+        <v>-4.3783016249785717E-3</v>
+      </c>
+      <c r="P9">
+        <v>-3.1848135627826199E-3</v>
+      </c>
+      <c r="Q9">
+        <v>1.3602094772528065E-4</v>
+      </c>
+      <c r="R9">
+        <v>3.1724071885885501E-3</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="4"/>
+        <v>1.8910089118642424E-2</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="12"/>
+        <v>1.89409217419955E-3</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="5"/>
+        <v>4.2219154579137006E-3</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="6"/>
+        <v>2.738473782671549E-3</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="7"/>
+        <v>8.7566032499571435E-3</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="8"/>
+        <v>6.3696271255652397E-3</v>
+      </c>
+      <c r="Z9">
+        <f>1-2*Q9</f>
+        <v>0.9997279581045494</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="10"/>
+        <v>-6.3448143771771002E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-17.997494373837785</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>-17.997494373837785</v>
+      </c>
+      <c r="C10">
+        <v>2.7787734711408056</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>-17.997494373837785</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="11"/>
+        <v>-17.997494373837785</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>-0.2720107244248226</v>
+      </c>
+      <c r="K10">
+        <v>-0.22051935257058056</v>
+      </c>
+      <c r="L10">
+        <v>-2.2087890614524722E-2</v>
+      </c>
+      <c r="M10">
+        <v>-4.923372161525244E-2</v>
+      </c>
+      <c r="N10">
+        <v>-3.1934617642330416E-2</v>
+      </c>
+      <c r="O10">
+        <v>-0.10211482702608331</v>
+      </c>
+      <c r="P10">
+        <v>-7.427918721233899E-2</v>
+      </c>
+      <c r="Q10">
+        <v>3.1724071885885501E-3</v>
+      </c>
+      <c r="R10">
+        <v>7.3989834202116786E-2</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="4"/>
+        <v>0.44103870514116111</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="12"/>
+        <v>4.4175781229049443E-2</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="5"/>
+        <v>9.8467443230504881E-2</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="6"/>
+        <v>6.3869235284660833E-2</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="7"/>
+        <v>0.20422965405216661</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="8"/>
+        <v>0.14855837442467798</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="9"/>
+        <v>-6.3448143771771002E-3</v>
+      </c>
+      <c r="AA10">
+        <f>1-2*R10</f>
+        <v>0.8520203315957664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="array" ref="A14:C21">MMULT(T3:AA10,A3:C10)</f>
+        <v>-40.807063334900327</v>
+      </c>
+      <c r="B14">
+        <v>-40.807063334900327</v>
+      </c>
+      <c r="C14">
+        <v>-12.270163093036922</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="array" ref="K14:R21">MMULT(I14:I21,TRANSPOSE(I14:I21))</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f>1-2*K14</f>
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <f t="shared" ref="U14" si="13">-2*L14</f>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f t="shared" ref="V14:V15" si="14">-2*M14</f>
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <f t="shared" ref="W14:W16" si="15">-2*N14</f>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f t="shared" ref="X14:X17" si="16">-2*O14</f>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" ref="Y14:Y18" si="17">-2*P14</f>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" ref="Z14:Z19" si="18">-2*Q14</f>
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" ref="AA14:AA20" si="19">-2*R14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-1.1102230246251565E-15</v>
+      </c>
+      <c r="B15">
+        <v>-1.1102230246251565E-15</v>
+      </c>
+      <c r="C15">
+        <v>-4.3928992481049134</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" ref="T15:T21" si="20">-2*K15</f>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f>1-2*L15</f>
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-8.8817841970012523E-16</v>
+      </c>
+      <c r="B16">
+        <v>-8.8817841970012523E-16</v>
+      </c>
+      <c r="C16">
+        <v>-0.99796770303485904</v>
+      </c>
+      <c r="E16">
+        <f>C16</f>
+        <v>-0.99796770303485904</v>
+      </c>
+      <c r="F16">
+        <f>SQRT(SUMPRODUCT(E16:E21,E16:E21))</f>
+        <v>37.840866645577719</v>
+      </c>
+      <c r="G16">
+        <f>E16-F16</f>
+        <v>-38.838834348612579</v>
+      </c>
+      <c r="H16">
+        <f>SQRT(SUMPRODUCT(G16:G21,G16:G21))</f>
+        <v>54.216144297718778</v>
+      </c>
+      <c r="I16">
+        <f>G16/H$16</f>
+        <v>-0.7163702777411779</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0.5131863748309724</v>
+      </c>
+      <c r="N16">
+        <v>-0.30147791769844307</v>
+      </c>
+      <c r="O16">
+        <v>-0.19844880969418294</v>
+      </c>
+      <c r="P16">
+        <v>-0.27437449800083219</v>
+      </c>
+      <c r="Q16">
+        <v>-0.20987065958719431</v>
+      </c>
+      <c r="R16">
+        <v>-1.5106147133439817E-2</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f t="shared" ref="U16:U21" si="21">-2*L16</f>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f>1-2*M16</f>
+        <v>-2.6372749661944805E-2</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="15"/>
+        <v>0.60295583539688613</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="16"/>
+        <v>0.39689761938836587</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="17"/>
+        <v>0.54874899600166438</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="18"/>
+        <v>0.41974131917438862</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="19"/>
+        <v>3.0212294266879634E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-8.8817841970012523E-16</v>
+      </c>
+      <c r="B17">
+        <v>-8.8817841970012523E-16</v>
+      </c>
+      <c r="C17">
+        <v>22.81637136042648</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17:E21" si="22">C17</f>
+        <v>22.81637136042648</v>
+      </c>
+      <c r="G17">
+        <f>E17</f>
+        <v>22.81637136042648</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ref="I17:I21" si="23">G17/H$16</f>
+        <v>0.42084090737132174</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>-0.30147791769844307</v>
+      </c>
+      <c r="N17">
+        <v>0.17710706931711739</v>
+      </c>
+      <c r="O17">
+        <v>0.1165812984338143</v>
+      </c>
+      <c r="P17">
+        <v>0.16118481780443061</v>
+      </c>
+      <c r="Q17">
+        <v>0.12329121064288925</v>
+      </c>
+      <c r="R17">
+        <v>8.8742998754316946E-3</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f t="shared" ref="V17:V21" si="24">-2*M17</f>
+        <v>0.60295583539688613</v>
+      </c>
+      <c r="W17">
+        <f>1-2*N17</f>
+        <v>0.64578586136576521</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="16"/>
+        <v>-0.23316259686762861</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="17"/>
+        <v>-0.32236963560886123</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="18"/>
+        <v>-0.24658242128577851</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="19"/>
+        <v>-1.7748599750863389E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-5.773159728050814E-15</v>
+      </c>
+      <c r="B18">
+        <v>-5.773159728050814E-15</v>
+      </c>
+      <c r="C18">
+        <v>15.018949887222417</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="22"/>
+        <v>15.018949887222417</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:G21" si="25">E18</f>
+        <v>15.018949887222417</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="23"/>
+        <v>0.27701988184088483</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>-0.19844880969418294</v>
+      </c>
+      <c r="N18">
+        <v>0.1165812984338143</v>
+      </c>
+      <c r="O18">
+        <v>7.6740014935137796E-2</v>
+      </c>
+      <c r="P18">
+        <v>0.10610042512652061</v>
+      </c>
+      <c r="Q18">
+        <v>8.1156836244004965E-2</v>
+      </c>
+      <c r="R18">
+        <v>5.8415364567769492E-3</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="24"/>
+        <v>0.39689761938836587</v>
+      </c>
+      <c r="W18">
+        <f t="shared" ref="W18:W21" si="26">-2*N18</f>
+        <v>-0.23316259686762861</v>
+      </c>
+      <c r="X18">
+        <f>1-2*O18</f>
+        <v>0.84651997012972435</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="17"/>
+        <v>-0.21220085025304122</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="18"/>
+        <v>-0.16231367248800993</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="19"/>
+        <v>-1.1683072913553898E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-5.3290705182007514E-15</v>
+      </c>
+      <c r="B19">
+        <v>-5.3290705182007514E-15</v>
+      </c>
+      <c r="C19">
+        <v>20.765137579593645</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="22"/>
+        <v>20.765137579593645</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="25"/>
+        <v>20.765137579593645</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="23"/>
+        <v>0.38300653520407885</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>-0.27437449800083219</v>
+      </c>
+      <c r="N19">
+        <v>0.16118481780443061</v>
+      </c>
+      <c r="O19">
+        <v>0.10610042512652061</v>
+      </c>
+      <c r="P19">
+        <v>0.14669400600903329</v>
+      </c>
+      <c r="Q19">
+        <v>0.11220710387781843</v>
+      </c>
+      <c r="R19">
+        <v>8.0764839827039622E-3</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="24"/>
+        <v>0.54874899600166438</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="26"/>
+        <v>-0.32236963560886123</v>
+      </c>
+      <c r="X19">
+        <f t="shared" ref="X19:X21" si="27">-2*O19</f>
+        <v>-0.21220085025304122</v>
+      </c>
+      <c r="Y19">
+        <f>1-2*P19</f>
+        <v>0.70661198798193348</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="18"/>
+        <v>-0.22441420775563686</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="19"/>
+        <v>-1.6152967965407924E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1.6653345369377348E-16</v>
+      </c>
+      <c r="B20">
+        <v>1.6653345369377348E-16</v>
+      </c>
+      <c r="C20">
+        <v>15.883375284516918</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="22"/>
+        <v>15.883375284516918</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="25"/>
+        <v>15.883375284516918</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="23"/>
+        <v>0.29296394072761889</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>-0.20987065958719431</v>
+      </c>
+      <c r="N20">
+        <v>0.12329121064288925</v>
+      </c>
+      <c r="O20">
+        <v>8.1156836244004965E-2</v>
+      </c>
+      <c r="P20">
+        <v>0.11220710387781843</v>
+      </c>
+      <c r="Q20">
+        <v>8.5827870566655792E-2</v>
+      </c>
+      <c r="R20">
+        <v>6.1777498745176733E-3</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="24"/>
+        <v>0.41974131917438862</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="26"/>
+        <v>-0.24658242128577851</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="27"/>
+        <v>-0.16231367248800993</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" ref="Y20:Y21" si="28">-2*P20</f>
+        <v>-0.22441420775563686</v>
+      </c>
+      <c r="Z20">
+        <f>1-2*Q20</f>
+        <v>0.82834425886668839</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="19"/>
+        <v>-1.2355499749035347E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5.3290705182007514E-15</v>
+      </c>
+      <c r="B21">
+        <v>5.3290705182007514E-15</v>
+      </c>
+      <c r="C21">
+        <v>1.1432593984099446</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="22"/>
+        <v>1.1432593984099446</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="25"/>
+        <v>1.1432593984099446</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="23"/>
+        <v>2.108706572957179E-2</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>-1.5106147133439817E-2</v>
+      </c>
+      <c r="N21">
+        <v>8.8742998754316946E-3</v>
+      </c>
+      <c r="O21">
+        <v>5.8415364567769492E-3</v>
+      </c>
+      <c r="P21">
+        <v>8.0764839827039622E-3</v>
+      </c>
+      <c r="Q21">
+        <v>6.1777498745176733E-3</v>
+      </c>
+      <c r="R21">
+        <v>4.4466434108328108E-4</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="24"/>
+        <v>3.0212294266879634E-2</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="26"/>
+        <v>-1.7748599750863389E-2</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="27"/>
+        <v>-1.1683072913553898E-2</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="28"/>
+        <v>-1.6152967965407924E-2</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" ref="Z21" si="29">-2*Q21</f>
+        <v>-1.2355499749035347E-2</v>
+      </c>
+      <c r="AA21">
+        <f>1-2*R21</f>
+        <v>0.99911067131783349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="array" ref="A25:C32">MMULT(T14:AA21,A14:C21)</f>
+        <v>-40.807063334900327</v>
+      </c>
+      <c r="B25">
+        <v>-40.807063334900327</v>
+      </c>
+      <c r="C25">
+        <v>-12.270163093036922</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-1.1102230246251565E-15</v>
+      </c>
+      <c r="B26">
+        <v>-1.1102230246251565E-15</v>
+      </c>
+      <c r="C26">
+        <v>-4.3928992481049134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-5.4968796846058428E-15</v>
+      </c>
+      <c r="B27">
+        <v>-5.4968796846058428E-15</v>
+      </c>
+      <c r="C27">
+        <v>37.840866645577719</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1.8192622466573718E-15</v>
+      </c>
+      <c r="B28">
+        <v>1.8192622466573718E-15</v>
+      </c>
+      <c r="C28">
+        <v>2.8206603719382883E-15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>-3.9909781949618794E-15</v>
+      </c>
+      <c r="B29">
+        <v>-3.9909781949618794E-15</v>
+      </c>
+      <c r="C29">
+        <v>1.6861512186494565E-15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>-2.8650337510305462E-15</v>
+      </c>
+      <c r="B30">
+        <v>-2.8650337510305462E-15</v>
+      </c>
+      <c r="C30">
+        <v>1.9463597400459776E-15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2.0512896002782876E-15</v>
+      </c>
+      <c r="B31">
+        <v>2.0512896002782876E-15</v>
+      </c>
+      <c r="C31">
+        <v>1.609823385706477E-15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>5.4647321858057555E-15</v>
+      </c>
+      <c r="B32">
+        <v>5.4647321858057555E-15</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D13"/>
+      <selection activeCell="C5" sqref="C5:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6178,1021 +7629,1021 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">50*RAND()-25</f>
-        <v>15.308224611761403</v>
+        <v>1.8436622307579462</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:H16" ca="1" si="0">50*RAND()-25</f>
-        <v>22.984133998297075</v>
+        <v>11.257841458605292</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>21.84343017875603</v>
+        <v>4.239566844320052</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8567254935900763</v>
+        <v>-20.705904248728519</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>10.9057534969957</v>
+        <v>11.137464630272845</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>22.802448168595909</v>
+        <v>6.2095199912570074</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.4269620263939427</v>
+        <v>24.742231745824661</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>-23.160531639755344</v>
+        <v>16.691227475745656</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:H30" ca="1" si="1">50*RAND()-25</f>
-        <v>24.207902149581905</v>
+        <v>-9.8616044699600778</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.6721234257732576</v>
+        <v>-17.944357528026515</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.290698540481422</v>
+        <v>-4.2050839323885931</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4054911922381521</v>
+        <v>-6.8412058351196521</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.700765809607745</v>
+        <v>-21.865448599013853</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.321389061276115</v>
+        <v>-4.4537631392773598</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2484626546566346</v>
+        <v>8.3197656303904495</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.367620167683102</v>
+        <v>6.517947368829546</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.86981844643525</v>
+        <v>-17.159291928496089</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4749568972782683</v>
+        <v>7.9315706410946163</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.979750816760124</v>
+        <v>4.4834947317439706</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>14.471963631800385</v>
+        <v>22.831305171178492</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.063388964069048</v>
+        <v>-8.2295573884637108</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.89080042262918</v>
+        <v>-11.427545950050543</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>21.580957747662254</v>
+        <v>18.464697813982276</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.646671200934364</v>
+        <v>-17.666152003826411</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1083589212718081</v>
+        <v>-16.172579076709866</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.2247484091223875</v>
+        <v>-3.3769851686092309</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6397450005120291</v>
+        <v>-17.548181236617378</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>16.185665451574131</v>
+        <v>-12.33653989420112</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.105710899561636</v>
+        <v>-4.7971019063078053</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.7557480256106217</v>
+        <v>-17.963485055206796</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>11.445673979188456</v>
+        <v>-6.9798059937726933</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8386423435257555</v>
+        <v>9.1334426393971029</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8430671034582531</v>
+        <v>-0.11171424629897686</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>21.25258896543987</v>
+        <v>3.7759821436399399</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.57933916864836732</v>
+        <v>-2.9759454123956459</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>16.577484019985143</v>
+        <v>14.2800333155757</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.98898077406329321</v>
+        <v>-11.82725884150469</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>19.836602786445305</v>
+        <v>8.6591963828579708</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>20.471245067729207</v>
+        <v>24.818062166537047</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.357600327367464</v>
+        <v>-21.098997874399682</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>12.890489181224758</v>
+        <v>-23.28779517517065</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>11.517092649364393</v>
+        <v>-4.7249053640952177</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0773993345194306</v>
+        <v>-0.79887587048206754</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.303163706045011</v>
+        <v>-23.582891930658707</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>21.025119258328118</v>
+        <v>3.0020607758819473</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>20.934123461671085</v>
+        <v>-14.971035161249047</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.116466104214581</v>
+        <v>9.6679569606653502</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.720826493597002</v>
+        <v>16.030835975824395</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.034652431281202</v>
+        <v>-17.470503180972297</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.790599820002463</v>
+        <v>0.22022494717863239</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>10.06469677622789</v>
+        <v>-6.960824873114678</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.1345875270875432</v>
+        <v>-3.3385076157908813</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>16.120373267681224</v>
+        <v>15.973840247502885</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.09514954735431</v>
+        <v>-5.9033617894554915</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3611549768517968</v>
+        <v>-15.456597397157301</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1216482784096584</v>
+        <v>0.90903224372922864</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55046764176570662</v>
+        <v>-20.831180096484935</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8962246800289506</v>
+        <v>3.1911752454164315</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>-22.597875009179951</v>
+        <v>-11.110120615115394</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.25192327251759039</v>
+        <v>22.599395387752025</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.638971537257191</v>
+        <v>21.611586003728142</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>10.974904421690198</v>
+        <v>7.8434355183395041</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>21.883677105218908</v>
+        <v>-12.076676675077385</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59873734051835115</v>
+        <v>-15.476071643181577</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.3112834617432334</v>
+        <v>-3.8945562107835663</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>13.633618378339314</v>
+        <v>-4.945939715580149</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>15.616009637874008</v>
+        <v>13.678014869953984</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.07807569923671</v>
+        <v>-3.4983654305467446</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.40390241230432622</v>
+        <v>20.847241701956605</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7827015175615735</v>
+        <v>-4.9320062898363979</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.087754640019341</v>
+        <v>15.012988585174959</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>20.308515303992834</v>
+        <v>-4.6585169600929994</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>11.187407015705013</v>
+        <v>-17.56823940403947</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.970455274965673</v>
+        <v>-3.5909602529457203</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.265312016366718</v>
+        <v>-17.600192561821089</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>-22.210065028165605</v>
+        <v>22.521639147602571</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.078386564319343</v>
+        <v>-24.559200849205364</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>13.474153104316031</v>
+        <v>23.945960302600852</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>21.358273763538008</v>
+        <v>15.474991645231576</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>-22.832464406020307</v>
+        <v>12.629447207520741</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>12.894055998524443</v>
+        <v>-18.802340871955348</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.372213259971417</v>
+        <v>3.2572954157542071</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.3560430665961931</v>
+        <v>23.202473673858762</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>12.614075211877648</v>
+        <v>19.555157352588026</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.9276326737076914</v>
+        <v>-9.5217391232253252</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.452864082671805</v>
+        <v>-11.170901025500457</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.543239471548535</v>
+        <v>-6.4934616329501864</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.6026693229341902</v>
+        <v>16.759444289574205</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4977413100313655</v>
+        <v>8.8820484393152626</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>23.156821843303739</v>
+        <v>8.9308148114204329</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>15.790709459011488</v>
+        <v>-1.6284231091119423</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.250906350475663</v>
+        <v>-18.856555563713613</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.60894569670779575</v>
+        <v>-17.440294316573873</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.601601752964275</v>
+        <v>1.5836421260011768</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8490922916796713</v>
+        <v>-9.4404238072912818</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2832617879587538</v>
+        <v>-2.1199977744661425</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>-20.49039808709756</v>
+        <v>-14.230260210109098</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.4313691956136267</v>
+        <v>9.7198453513902976</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2189422542803641</v>
+        <v>-24.644957506389325</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3500934898948103</v>
+        <v>-5.7376426504777598</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.465101471110724</v>
+        <v>-23.842949730734709</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.798622286077041</v>
+        <v>5.627673750973571</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9119708661497512</v>
+        <v>17.799624034851583</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>10.761701829961289</v>
+        <v>-6.7469878823978604</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>23.917915993592779</v>
+        <v>15.75839840244668</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0367263578057191</v>
+        <v>12.633908850119489</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0902243254134873</v>
+        <v>-5.3688619685807311</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.906673679333032</v>
+        <v>-9.7050383302243919</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.70029313794312</v>
+        <v>-15.31508172324607</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.691198116211092</v>
+        <v>21.967428096920997</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.625876299505304</v>
+        <v>-13.084507269318246</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>-23.770159692265981</v>
+        <v>11.29777465223755</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>10.399006415857173</v>
+        <v>17.851804111695976</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4367114459658339</v>
+        <v>4.456426046516178</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.125562577205713</v>
+        <v>1.6802954819682299</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.5281955674495045</v>
+        <v>23.70603214373331</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>14.775354727964626</v>
+        <v>-2.5202989432780996</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7306501519790061</v>
+        <v>-18.002431884356866</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.62574730054941</v>
+        <v>19.759572067151943</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>19.937990090458037</v>
+        <v>16.860175545313346</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.210910468789933</v>
+        <v>-16.572578893356372</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9528536890734323</v>
+        <v>-3.5769415736743149</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.1837476182416964</v>
+        <v>23.747938731119845</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2496992507422071</v>
+        <v>-3.4623827947082084</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.673307352897883</v>
+        <v>-10.937841931839326</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.39704369226537</v>
+        <v>-6.7273821911982061</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.18295019277944</v>
+        <v>7.4853085746371448</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0688068577458942</v>
+        <v>13.842852233129584</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.617535840376256</v>
+        <v>-5.3053184891787843</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3952504303532329</v>
+        <v>7.143994587031635</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>18.84427152938374</v>
+        <v>-9.2197055769595693</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.91110895006227821</v>
+        <v>19.533521864270867</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.3436332380905096</v>
+        <v>-16.155339435704203</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.786574195632134</v>
+        <v>6.4608505168768708</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9466293591881936</v>
+        <v>9.5139466026236903</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.036105700858641</v>
+        <v>0.17135825894060019</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3555145930263919</v>
+        <v>4.3587574367307482</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1383574388828421</v>
+        <v>7.4357285385670409</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>14.155753973478753</v>
+        <v>-6.2199341305115396</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.5381761914509973</v>
+        <v>17.164759688840689</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.3725194843343793</v>
+        <v>2.8374743484255021</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.764346387159517</v>
+        <v>0.20815913286601884</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.237195615054372</v>
+        <v>19.871900310798921</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.425508698034843</v>
+        <v>16.422698248023778</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0027586010391936</v>
+        <v>-14.748252707283738</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.786338236472545</v>
+        <v>-20.281092150452796</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34452333476871644</v>
+        <v>-20.712474602632668</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.839631458316484</v>
+        <v>-24.500830014176138</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>13.74239491328251</v>
+        <v>-14.910786769980543</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>18.181388748681584</v>
+        <v>-14.089763791667725</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.8933200144314561</v>
+        <v>-4.7953221677784157</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.0514254868567434</v>
+        <v>-19.526572675496102</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>18.453838815889192</v>
+        <v>5.9280741474604284</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>-20.328270057506053</v>
+        <v>-18.331052156958215</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.021109606975784</v>
+        <v>14.524274216968109</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9683031208309245</v>
+        <v>-0.99572800941875172</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>23.02123816722024</v>
+        <v>-11.347805911566821</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.508975645463948</v>
+        <v>-24.54221857329188</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.3041542065536778</v>
+        <v>22.386719567185452</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8953730363327423</v>
+        <v>-10.603556347833143</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.1654179804155973</v>
+        <v>-3.4449184743120327</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.30477950201821</v>
+        <v>14.027872320926335</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.129292808279361</v>
+        <v>8.2020915522425923</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6910812773576396</v>
+        <v>17.63823074729526</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.8172402094832734</v>
+        <v>11.461514940824728</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>24.51966803448736</v>
+        <v>8.2747431896358137</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>18.828980491302502</v>
+        <v>-18.287256798037138</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.180543454715696</v>
+        <v>-7.8051399379536477</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.710883598093712</v>
+        <v>-11.727564332582524</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.9305745108070553</v>
+        <v>-7.0894793875962705</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3700014957105253</v>
+        <v>-4.8741853696370576</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.134981560745441</v>
+        <v>-22.543351547353517</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.378279138546169</v>
+        <v>22.967487567521232</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>-16.898773919174793</v>
+        <v>-4.9732288604205195</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>11.602317477380495</v>
+        <v>11.005466843868447</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5511821900642282</v>
+        <v>0.70947361782899776</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.78201180443408091</v>
+        <v>17.819675247261493</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.217330982361002</v>
+        <v>12.024257439937962</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.814866342242642</v>
+        <v>20.642452631347965</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3797395481790176</v>
+        <v>-24.356321884045368</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1876575340398787</v>
+        <v>17.955198620364989</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.920960217110377</v>
+        <v>15.276095650766813</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.9604214049762412</v>
+        <v>-10.289815578052769</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.9357013268077097</v>
+        <v>13.52347418655286</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.1460208332445632</v>
+        <v>23.420011031917618</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8603884746392083</v>
+        <v>11.522644088847208</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>24.916714454529085</v>
+        <v>3.853224841774928</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.496844129879758</v>
+        <v>-10.596579696826335</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.393096480746877</v>
+        <v>3.4439973495490435</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>16.007629970694772</v>
+        <v>9.0909718587386408</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>12.452601978697196</v>
+        <v>-13.264648091296211</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4359496114216377</v>
+        <v>23.502356469382939</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>10.899447782632386</v>
+        <v>-3.7862336117031674</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>13.553125419344347</v>
+        <v>-8.0832292444072067</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8914719092622043</v>
+        <v>-20.963247485146415</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.652340681629969</v>
+        <v>-19.579887741518604</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.6719593199127942</v>
+        <v>4.1553867756483278</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>19.453731555757251</v>
+        <v>-11.246058727817054</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0433988320784131</v>
+        <v>-3.9944901980756882</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5411352669249325</v>
+        <v>2.8270056155549845</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="1"/>
-        <v>17.355640758389981</v>
+        <v>-8.9797967922223236</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.294209855858043</v>
+        <v>12.648987894713521</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0968163206004284</v>
+        <v>10.459408338299106</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.928698996786805</v>
+        <v>9.8428982485787273</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.53905862789265058</v>
+        <v>20.61106745891869</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.6954480380737884</v>
+        <v>17.017540407904448</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8806943822486204</v>
+        <v>7.7149550285913335</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.36206631570309611</v>
+        <v>-0.26334765207963784</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="1"/>
-        <v>21.68822553967793</v>
+        <v>20.758832504649845</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.758428889038946</v>
+        <v>15.740849666976757</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.460680162324898</v>
+        <v>-23.784932583341455</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8761460843179734</v>
+        <v>23.870938377176671</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2728096830230413</v>
+        <v>-12.44760533338617</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>12.345890351938266</v>
+        <v>5.0128258946799846</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.6425509279758188</v>
+        <v>-9.0298216004831726</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4200008176665513</v>
+        <v>8.6853507078524927</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.21940478253296192</v>
+        <v>1.8729419530878033</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8207009752453764</v>
+        <v>-23.419289107134773</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1647220457809624</v>
+        <v>14.929938944018133</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.0053394983474426</v>
+        <v>-10.557948733065164</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.651941175656304</v>
+        <v>-14.352588445585473</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6379867351335875</v>
+        <v>-19.848948872362715</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.707519494954713</v>
+        <v>3.0332046205115368</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>21.976118061848155</v>
+        <v>24.481097515154367</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.5097683368564994</v>
+        <v>14.068147496572294</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>11.159946220912495</v>
+        <v>-2.4566079744489109</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>18.304403730818272</v>
+        <v>-13.280704023705459</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>5.764131101201297</v>
+        <v>4.2100591453716127</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.9972879908689478</v>
+        <v>16.86454710896912</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>20.294436187052433</v>
+        <v>-10.091954974611806</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>16.671208838991838</v>
+        <v>-23.789124062239704</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66085585806158775</v>
+        <v>-17.904111884312446</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.5910337111915</v>
+        <v>-2.9943513198018756</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>17.783343346055155</v>
+        <v>-1.8191852581504477</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0867979411518185</v>
+        <v>15.30493311002315</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.9449708184065919</v>
+        <v>22.433559056412165</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8967501025623079</v>
+        <v>5.042363283662155</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.010447636858629</v>
+        <v>-19.32029024960071</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>16.728571097256605</v>
+        <v>-24.385262891388887</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.905012082540285</v>
+        <v>-23.027463431881301</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/QRDecompTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/QRDecompTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="3"/>
+    <workbookView xWindow="-1140" yWindow="285" windowWidth="19440" windowHeight="11040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4x4" sheetId="1" r:id="rId1"/>
@@ -1763,8 +1763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG67"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:F62"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A57" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9782,7 +9782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="A36" sqref="A36:H43"/>
     </sheetView>
   </sheetViews>
@@ -12461,1021 +12461,1021 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">50*RAND()-25</f>
-        <v>-5.7416684772734499</v>
+        <v>-15.881651972371657</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:H16" ca="1" si="0">50*RAND()-25</f>
-        <v>-7.1827747421766404</v>
+        <v>-15.45941576573377</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.420855891167182</v>
+        <v>23.971295710217142</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.719501336299984</v>
+        <v>-22.172389509728418</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.389882454072481</v>
+        <v>10.713524885777794</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6815720054871335</v>
+        <v>-17.352532874781801</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5777293812793012</v>
+        <v>-18.811350328044778</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.470000134841118</v>
+        <v>-15.890450737497218</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:H30" ca="1" si="1">50*RAND()-25</f>
-        <v>10.163303376212887</v>
+        <v>1.1190175324740643</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8508015758372593</v>
+        <v>-14.183936891066201</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.89880066264579</v>
+        <v>14.890315351492319</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.896714948646434</v>
+        <v>20.070735120268175</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9770143802654587</v>
+        <v>-9.452402644769764</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39572068792806903</v>
+        <v>-2.6139853176938885</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5155625500806096</v>
+        <v>-15.086885774316116</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9806297859273378</v>
+        <v>-5.565444649500801</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6709384814631782</v>
+        <v>0.7706045200235927</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7727577065679654</v>
+        <v>-11.274510465226955</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.174971654879474</v>
+        <v>-21.287702592130596</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.801859318650475</v>
+        <v>7.915289884167187</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>16.665120888518722</v>
+        <v>22.137335016092067</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.830667759213782</v>
+        <v>14.324369586532029</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.8213924142031246</v>
+        <v>-16.541089173492516</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.3457206423871622</v>
+        <v>24.394695842459257</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>-20.114539105866228</v>
+        <v>-24.549631534874333</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>21.30510844881767</v>
+        <v>11.439135190629408</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.433235405668228</v>
+        <v>6.6385771166968937</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>19.743300746061664</v>
+        <v>-20.126323036106754</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.1670033353920246</v>
+        <v>-18.318520291396545</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>19.226782227688332</v>
+        <v>17.328770463743005</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.162309247149793</v>
+        <v>1.2715172159104355</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1459876209183122</v>
+        <v>24.145421078515731</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.3922078312537245</v>
+        <v>-21.601191246933553</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.894189595431758</v>
+        <v>22.08338029210158</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.396109361579102</v>
+        <v>-14.632438620666722</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.8480701646973579</v>
+        <v>13.159626126776985</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1752344501358607</v>
+        <v>-6.2971852755967177</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>13.938074819323113</v>
+        <v>-24.782560933370423</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.579956954787118</v>
+        <v>13.123821885273813</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2715420093227578E-2</v>
+        <v>21.064641861930724</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.690732156959507</v>
+        <v>-16.311890527121935</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9270973066304862</v>
+        <v>-21.94858953189679</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7010762100892727</v>
+        <v>-13.629758004087765</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.0554728352816589</v>
+        <v>-14.561182204024913</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>13.729954304571301</v>
+        <v>8.5202158268023922</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>14.279713366767389</v>
+        <v>-8.5333168424213959</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5961491538535881</v>
+        <v>-22.028574041541582</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.708892925727248</v>
+        <v>-13.272984285518191</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8611526717510216</v>
+        <v>5.3107764552765175</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.9329224225410186</v>
+        <v>-0.85073658364539639</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>24.720552165661083</v>
+        <v>-8.9380281103762336</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>18.886072817054604</v>
+        <v>-19.415749550347037</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.5699961021020066</v>
+        <v>-22.433810204568228</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.854066525245234</v>
+        <v>-18.016799610524732</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28107330007596687</v>
+        <v>7.7820740533570785</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.48047344177566842</v>
+        <v>-2.1417259400189685</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>16.352353666802813</v>
+        <v>-10.524498221983603</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8294749550596094</v>
+        <v>7.3384690318326875</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>14.09757452400035</v>
+        <v>5.9719157019614286</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.8524490665224604</v>
+        <v>1.1710856543773573</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>11.69393625541624</v>
+        <v>6.2743656341482534</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>21.369686722843483</v>
+        <v>12.92256384482716</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7231309200610596</v>
+        <v>3.4945197314821819</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>22.991984893005785</v>
+        <v>21.524486172716387</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.223839908103784</v>
+        <v>21.448772191003378</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>23.344369794579166</v>
+        <v>18.278568622117916</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3443180659483005</v>
+        <v>-12.676553247158145</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.23520292095618</v>
+        <v>8.656423167025423</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.66853445332546</v>
+        <v>-7.9824846476386426</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.4017715876536414</v>
+        <v>-18.998227876397962</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.278908633837347</v>
+        <v>-24.65849877637622</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.5592550954789353</v>
+        <v>2.2179448659002219</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.007669019182014</v>
+        <v>7.5472015049826737</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.93427928907362</v>
+        <v>10.324201785739412</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.590683315298378</v>
+        <v>6.7271114890415369</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>17.355570937531581</v>
+        <v>7.9009460075452651</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>10.648251056440266</v>
+        <v>24.894488488645585</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.007308993655165</v>
+        <v>-18.47618790257291</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>24.642851962320528</v>
+        <v>-0.51348571002872845</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.769318835980524</v>
+        <v>-24.314160188890028</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>23.020908920582031</v>
+        <v>23.865811786551639</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.37538548209505</v>
+        <v>-12.743570228041335</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.406205125583321</v>
+        <v>-22.313564460605374</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6611619528055925</v>
+        <v>4.9423585020058063</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.404406211361046</v>
+        <v>17.174880237893078</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2492705322825906</v>
+        <v>-6.0153934008398977</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.309422010928429</v>
+        <v>17.012262914438573</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.67091276608236</v>
+        <v>-4.7254274119197071</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>14.691617231761811</v>
+        <v>-5.7333111023275372</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.642743197630706</v>
+        <v>-2.8974649971882371</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.9180349951711939</v>
+        <v>-21.285275740089393</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>-22.011526945305508</v>
+        <v>-12.092432593993724</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.009944093469311</v>
+        <v>-8.8449768563044557</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.049030655523815</v>
+        <v>11.062343822917349</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.659184519238872</v>
+        <v>-24.018777345346358</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.938651399925313</v>
+        <v>-10.881536527802748</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>12.531504870288991</v>
+        <v>23.002896217494317</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.0267922943953529</v>
+        <v>22.686256432280693</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>23.022293096780132</v>
+        <v>-24.008106001779971</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.890717515512238</v>
+        <v>-3.5558979492820271</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>-23.040553296664879</v>
+        <v>-17.477952136393355</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>-23.7012989701546</v>
+        <v>-1.2642197708436882</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.57828781596152012</v>
+        <v>14.306437219159882</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>11.661478917082526</v>
+        <v>-12.296098263575706</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.5001188311193374</v>
+        <v>-17.248150966085095</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>15.350478200852805</v>
+        <v>-12.814434615629533</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.286203007960694</v>
+        <v>-16.059976779227526</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.041980414473791</v>
+        <v>4.912932126833379</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.2329826490539091</v>
+        <v>-6.3071342806316331</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.9292673726717453</v>
+        <v>-7.038904325842914</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3537788120314715</v>
+        <v>-3.237869657114544</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>8.68842937982145</v>
+        <v>22.515125899094862</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0707771272029376</v>
+        <v>-1.0903316609090048</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.693719198890317</v>
+        <v>0.52358094454382709</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>20.455242816307383</v>
+        <v>-3.8515606698085421</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.475576355095782</v>
+        <v>-1.5766697177107893</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.666835038004155</v>
+        <v>-18.109875014159837</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.5889297580111013</v>
+        <v>-3.0734116734092431</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.9079103859959226</v>
+        <v>24.360010771794052</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>-23.371965922137726</v>
+        <v>-12.44483744412363</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.145160176971867</v>
+        <v>-6.0425701988244995</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.6702597823074257</v>
+        <v>11.432055542819512</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7253959414108166</v>
+        <v>23.564477115376597</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>-22.78910065396947</v>
+        <v>-2.8587511237933114</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.77771434311552</v>
+        <v>23.746119603110898</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.818485663062486</v>
+        <v>-3.8890121131239113</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8733160559242279</v>
+        <v>16.429111127219798</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>24.505799761120208</v>
+        <v>-6.7247839163539496</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>16.244444467063701</v>
+        <v>-4.1456762556143794</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>-16.168210539785488</v>
+        <v>-9.2474037393345263</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.84366722787435</v>
+        <v>-14.758822378219582</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.796219459653301</v>
+        <v>1.2268915204472535</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.285075609830599</v>
+        <v>13.890459356148668</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>17.955834524827935</v>
+        <v>-1.7221294733477706</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>15.757478020679329</v>
+        <v>14.446307121193556</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1531602029512094</v>
+        <v>-19.450413591428561</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>9.0156762810902649</v>
+        <v>24.739030865152785</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>11.816595796259442</v>
+        <v>-4.773692561324129</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.145696992646087</v>
+        <v>22.467924280543215</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7224672620003751</v>
+        <v>-21.027973512084824</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.58417725774403451</v>
+        <v>23.821026453381521</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1429196523496969</v>
+        <v>14.848604559422448</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.483193201277297</v>
+        <v>1.3424308007076604</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.026048458463354</v>
+        <v>21.493599766257212</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.4496890187664278</v>
+        <v>10.236667916998414</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3654212253861786</v>
+        <v>14.936163092451828</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.189038391095524</v>
+        <v>-22.248310859356479</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>16.407809142554434</v>
+        <v>-7.5460965416597539</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.1051553300190626</v>
+        <v>-10.787853226946019</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.837105925849595</v>
+        <v>20.629721536592371</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.5604328140391175</v>
+        <v>-24.798094401217774</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6506646538000993</v>
+        <v>-24.76757302291518</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.452083862998474</v>
+        <v>-21.276002255893989</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.8260373353524351</v>
+        <v>7.2504541971831173</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>23.322971477895464</v>
+        <v>1.3248346665126185</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>16.99148506090615</v>
+        <v>-14.822110280888889</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>13.500432920472811</v>
+        <v>19.822202155297354</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.9408353115692236</v>
+        <v>-3.8996236752948654</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>11.635430910792117</v>
+        <v>16.203305680673893</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.395773183341525</v>
+        <v>-10.801031610578177</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.74259748434844397</v>
+        <v>-17.500472534190614</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5836286656913998</v>
+        <v>14.208621395899783</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.581865030246062</v>
+        <v>16.6848854046629</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>18.788901629760559</v>
+        <v>-17.670728392993279</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>24.579601061792282</v>
+        <v>-6.0861478056327236</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.68906523610676</v>
+        <v>-13.647059105759601</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.176849189025411</v>
+        <v>-3.1561474939156788</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>11.261509079508897</v>
+        <v>13.385012411117451</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>24.288177389107268</v>
+        <v>23.318834493662443</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>23.389684730410423</v>
+        <v>3.4000017544098036</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>21.643922408298025</v>
+        <v>12.807197233113335</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.733439242186613</v>
+        <v>9.9178434398094879</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>10.512620557104476</v>
+        <v>-22.760581278459153</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.323013597489481</v>
+        <v>-16.694241206556534</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.013798337784987</v>
+        <v>15.096426251899928</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.60949897577878431</v>
+        <v>-2.3620264495787566</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.1344078950125702</v>
+        <v>-4.4465884858648259</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>15.697616623620064</v>
+        <v>-23.118265580833587</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.7448742452182202</v>
+        <v>-24.524437617854211</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>16.775799979777361</v>
+        <v>8.8713975237674916</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.4345524161336272</v>
+        <v>-16.643985361714719</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.355170132923277</v>
+        <v>-19.700604462850009</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.85730115136958</v>
+        <v>-14.602882973167064</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.5499504250600964</v>
+        <v>-11.230353234900786</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4670320248886739</v>
+        <v>-10.19216374124613</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.414381296479743</v>
+        <v>9.1727444457553631</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.389590646462004</v>
+        <v>-9.3415235006657209</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.350760767426106</v>
+        <v>-11.229038985006106</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.0901456847721391</v>
+        <v>-10.662803513504626</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.5404924932589523</v>
+        <v>-21.831936278293952</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.100621314230324</v>
+        <v>21.802582432569558</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.9445912490887558</v>
+        <v>14.153433907016016</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>20.945201393860252</v>
+        <v>-24.7338176423678</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>12.281266497530112</v>
+        <v>-13.455073658487837</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.6179792734913185</v>
+        <v>-22.456588502123441</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.5246442795681112</v>
+        <v>-15.613179018436618</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98833570475851218</v>
+        <v>1.5399507889715238</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>22.757562659800676</v>
+        <v>-21.428527674482627</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.236046080729865</v>
+        <v>-3.9538404887798428</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.7622464086567788</v>
+        <v>-18.050903775267678</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.733187416131791</v>
+        <v>-23.262928974108178</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.122114625050795</v>
+        <v>-1.4332189537600861</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>1.009185338590008</v>
+        <v>0.18541560051460593</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>-20.819386486562468</v>
+        <v>9.3858090582309472</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6869775647611043</v>
+        <v>8.3013995901810773</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>24.020221690749338</v>
+        <v>5.3730007880731527</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>21.105190573606436</v>
+        <v>-4.7969386460954873</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1610252015941498</v>
+        <v>19.264611809874637</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="1"/>
-        <v>15.719414187038851</v>
+        <v>-7.4538128409334483</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.9112061322727492</v>
+        <v>-1.4871285913806993</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.486803560454586</v>
+        <v>12.499001714434954</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>13.956426841909511</v>
+        <v>-6.9301366017410935</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.237009383618208</v>
+        <v>18.916430512692465</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.049041024340699</v>
+        <v>16.393829715193291</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.19945838786729198</v>
+        <v>-5.7824158246597364</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6771779896883388</v>
+        <v>-13.393380924777565</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.8747279709035425</v>
+        <v>-5.9191242910470692</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5433912588680414</v>
+        <v>-24.380231620279552</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>13.094544742762082</v>
+        <v>-11.849548931793342</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.430705545757675</v>
+        <v>16.700204200823457</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>10.285659185597567</v>
+        <v>-7.0735637169780823</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>19.806667535262001</v>
+        <v>21.061997933742141</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.5772950228066946</v>
+        <v>-9.5100363691880627</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.635147781397759</v>
+        <v>-19.991817558195962</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4073939537918889</v>
+        <v>23.792385652519414</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.897531465842306</v>
+        <v>-10.739917641011603</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.491128411200151</v>
+        <v>19.123418284802845</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>16.724610100895561</v>
+        <v>-18.185602675562812</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.9862794322654196</v>
+        <v>-0.39224960190568581</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8304507898957461</v>
+        <v>-1.1346066681797318</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1233598852667157</v>
+        <v>3.9373840512305236</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2586760163751833</v>
+        <v>-1.4292259864556272</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="1"/>
-        <v>19.534449590983698</v>
+        <v>24.847839149620476</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>24.36962351856711</v>
+        <v>16.165613072174409</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.274859446547666</v>
+        <v>-20.126622166184376</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>1.664004251138735</v>
+        <v>21.927065826982037</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>14.47347341767415</v>
+        <v>-18.848129203579983</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>22.651492158532974</v>
+        <v>-11.979112704699112</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.752396461400314</v>
+        <v>1.6529081975346536</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.111316093108103</v>
+        <v>9.0683933829374297</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/QRDecompTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/QRDecompTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-1140" yWindow="285" windowWidth="19440" windowHeight="11040" activeTab="1"/>
+    <workbookView xWindow="4275" yWindow="105" windowWidth="19440" windowHeight="11040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4x4" sheetId="1" r:id="rId1"/>
@@ -1763,8 +1763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A57" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12461,1021 +12461,1021 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">50*RAND()-25</f>
-        <v>-15.881651972371657</v>
+        <v>-12.325089327521422</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:H16" ca="1" si="0">50*RAND()-25</f>
-        <v>-15.45941576573377</v>
+        <v>17.876634164595131</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>23.971295710217142</v>
+        <v>7.3469889660289525</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>-22.172389509728418</v>
+        <v>-24.416113822881293</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>10.713524885777794</v>
+        <v>-20.28803114614518</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.352532874781801</v>
+        <v>3.9140003682091091</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.811350328044778</v>
+        <v>-5.1646695604329551</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.890450737497218</v>
+        <v>9.5136939752717211</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:H30" ca="1" si="1">50*RAND()-25</f>
-        <v>1.1190175324740643</v>
+        <v>-8.7055425368117234</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.183936891066201</v>
+        <v>18.463494090905371</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>14.890315351492319</v>
+        <v>20.988218836361774</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.070735120268175</v>
+        <v>17.39366222247223</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.452402644769764</v>
+        <v>23.01979566886606</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6139853176938885</v>
+        <v>-24.154081886766143</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.086885774316116</v>
+        <v>-16.598263905692502</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.565444649500801</v>
+        <v>18.380381634424012</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7706045200235927</v>
+        <v>16.795258761442675</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.274510465226955</v>
+        <v>-6.3256229100364045</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.287702592130596</v>
+        <v>21.451682182213396</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.915289884167187</v>
+        <v>13.84131006331161</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>22.137335016092067</v>
+        <v>-0.28624387242985705</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>14.324369586532029</v>
+        <v>17.3167434135745</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.541089173492516</v>
+        <v>7.6262847945894521</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>24.394695842459257</v>
+        <v>9.3780953820738944</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.549631534874333</v>
+        <v>2.1908226507250603</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>11.439135190629408</v>
+        <v>19.395201103384302</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6385771166968937</v>
+        <v>-21.592799125861379</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.126323036106754</v>
+        <v>13.055532621837223</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.318520291396545</v>
+        <v>-5.682386589266887</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>17.328770463743005</v>
+        <v>-15.340419184679998</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2715172159104355</v>
+        <v>21.520741753961886</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>24.145421078515731</v>
+        <v>-23.746864527686778</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.601191246933553</v>
+        <v>-10.697181874682805</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>22.08338029210158</v>
+        <v>20.317724741130363</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.632438620666722</v>
+        <v>-17.059007332301519</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>13.159626126776985</v>
+        <v>1.5277470556251131</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.2971852755967177</v>
+        <v>-6.0091343949419347</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.782560933370423</v>
+        <v>-24.25864737517167</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>13.123821885273813</v>
+        <v>-21.158077820277715</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>21.064641861930724</v>
+        <v>-24.389617882513591</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>-16.311890527121935</v>
+        <v>-7.1008956185067689</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.94858953189679</v>
+        <v>-9.1726642236684022</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.629758004087765</v>
+        <v>-7.1089104436128991</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.561182204024913</v>
+        <v>-14.833333655217034</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5202158268023922</v>
+        <v>3.2703378884896281</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.5333168424213959</v>
+        <v>-23.024124922828026</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>-22.028574041541582</v>
+        <v>23.67944201144924</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.272984285518191</v>
+        <v>16.786194465512089</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3107764552765175</v>
+        <v>10.477966638597621</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.85073658364539639</v>
+        <v>21.131520248150018</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.9380281103762336</v>
+        <v>-17.936989576060924</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.415749550347037</v>
+        <v>-0.80095701363592653</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-22.433810204568228</v>
+        <v>2.05018672126333</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.016799610524732</v>
+        <v>-16.274834375680502</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7820740533570785</v>
+        <v>-4.5174119748030144</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1417259400189685</v>
+        <v>9.5408814852001953</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.524498221983603</v>
+        <v>-21.831782598619142</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3384690318326875</v>
+        <v>9.9785354201492495</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9719157019614286</v>
+        <v>16.12439635615052</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1710856543773573</v>
+        <v>-8.5137142744967811</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2743656341482534</v>
+        <v>-24.113413192286131</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>12.92256384482716</v>
+        <v>-5.9547112063249976</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4945197314821819</v>
+        <v>-12.082966507848136</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>21.524486172716387</v>
+        <v>21.446601013849957</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>21.448772191003378</v>
+        <v>6.390159451210458</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>18.278568622117916</v>
+        <v>14.488377909182091</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.676553247158145</v>
+        <v>-19.631664068490256</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>8.656423167025423</v>
+        <v>10.763135060714298</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.9824846476386426</v>
+        <v>-9.6786369968473061</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.998227876397962</v>
+        <v>-11.71724505193572</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.65849877637622</v>
+        <v>-6.4102730989127821</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2179448659002219</v>
+        <v>9.3246436669243877</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5472015049826737</v>
+        <v>1.6636566970384514</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>10.324201785739412</v>
+        <v>17.954677494734213</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7271114890415369</v>
+        <v>14.550627827964092</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9009460075452651</v>
+        <v>17.128015369013895</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>24.894488488645585</v>
+        <v>13.099950841729154</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.47618790257291</v>
+        <v>-9.5236310831699083</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.51348571002872845</v>
+        <v>-6.9361008230151775</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.314160188890028</v>
+        <v>7.0295510950594888</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>23.865811786551639</v>
+        <v>-5.7979949698993849</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.743570228041335</v>
+        <v>11.669044161224207</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-22.313564460605374</v>
+        <v>-18.709485781011544</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9423585020058063</v>
+        <v>-7.6929303992490539</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>17.174880237893078</v>
+        <v>-8.3884841523256597</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.0153934008398977</v>
+        <v>1.3978942427170082</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>17.012262914438573</v>
+        <v>21.586999568517065</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.7254274119197071</v>
+        <v>5.6591085680606739</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.7333111023275372</v>
+        <v>-19.527146899782306</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8974649971882371</v>
+        <v>-16.018397683751267</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.285275740089393</v>
+        <v>7.8060564532879155</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.092432593993724</v>
+        <v>4.9279331173415883</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.8449768563044557</v>
+        <v>-10.47371119431002</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>11.062343822917349</v>
+        <v>-3.613806809482579</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.018777345346358</v>
+        <v>-18.220766238252757</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.881536527802748</v>
+        <v>-9.498692900705441</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>23.002896217494317</v>
+        <v>-21.32837774696749</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>22.686256432280693</v>
+        <v>-21.6462330849414</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.008106001779971</v>
+        <v>-17.514497713283706</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.5558979492820271</v>
+        <v>24.249500793993597</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.477952136393355</v>
+        <v>5.3449092540238929</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2642197708436882</v>
+        <v>-18.279790246743865</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>14.306437219159882</v>
+        <v>18.06800961518428</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.296098263575706</v>
+        <v>5.9311829520538488</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.248150966085095</v>
+        <v>-4.0589682034564198</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.814434615629533</v>
+        <v>-18.383651312203359</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.059976779227526</v>
+        <v>-18.525286691925118</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.912932126833379</v>
+        <v>21.732756290456059</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.3071342806316331</v>
+        <v>16.479431878863068</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.038904325842914</v>
+        <v>0.52440862109973096</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.237869657114544</v>
+        <v>-22.751571501704081</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>22.515125899094862</v>
+        <v>15.275332681323562</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0903316609090048</v>
+        <v>0.52580447242554129</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52358094454382709</v>
+        <v>-11.54102166793659</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.8515606698085421</v>
+        <v>14.410870981849236</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5766697177107893</v>
+        <v>-23.723521230178722</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.109875014159837</v>
+        <v>20.829580638466247</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.0734116734092431</v>
+        <v>21.324343494946199</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>24.360010771794052</v>
+        <v>23.087675602892297</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.44483744412363</v>
+        <v>2.4262946600611528</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.0425701988244995</v>
+        <v>-11.76507675622258</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>11.432055542819512</v>
+        <v>3.208390658676457</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>23.564477115376597</v>
+        <v>-5.7414603832849913</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8587511237933114</v>
+        <v>-19.238448423860195</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>23.746119603110898</v>
+        <v>-23.330853164001319</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.8890121131239113</v>
+        <v>-0.83606301575546738</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>16.429111127219798</v>
+        <v>-3.4587102143474659</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.7247839163539496</v>
+        <v>23.821828799342867</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.1456762556143794</v>
+        <v>18.140618333749181</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.2474037393345263</v>
+        <v>-12.400454560949804</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.758822378219582</v>
+        <v>-11.466318622492089</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2268915204472535</v>
+        <v>14.370085112301439</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>13.890459356148668</v>
+        <v>19.402657032105559</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7221294733477706</v>
+        <v>-8.1723820067390989</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>14.446307121193556</v>
+        <v>15.970310588935419</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.450413591428561</v>
+        <v>0.51733967584218732</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>24.739030865152785</v>
+        <v>-8.6730838236149523</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.773692561324129</v>
+        <v>8.6848521931328762</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>22.467924280543215</v>
+        <v>5.1895704056069647</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.027973512084824</v>
+        <v>11.869140164318189</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>23.821026453381521</v>
+        <v>-9.1654806873623045</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>14.848604559422448</v>
+        <v>-10.344293759411627</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3424308007076604</v>
+        <v>23.094694921861723</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>21.493599766257212</v>
+        <v>15.721028440867855</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>10.236667916998414</v>
+        <v>9.5595044942507386</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>14.936163092451828</v>
+        <v>16.714016158112941</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.248310859356479</v>
+        <v>-23.33829709404996</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.5460965416597539</v>
+        <v>-6.18441396175783</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.787853226946019</v>
+        <v>-19.527066334455039</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>20.629721536592371</v>
+        <v>8.9880208504494661</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.798094401217774</v>
+        <v>17.547533490710535</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.76757302291518</v>
+        <v>-23.355609372399329</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.276002255893989</v>
+        <v>-0.1975641539303723</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2504541971831173</v>
+        <v>-2.8524187233590013</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3248346665126185</v>
+        <v>10.364207168861824</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.822110280888889</v>
+        <v>-8.8959608532707577</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>19.822202155297354</v>
+        <v>16.03799123307077</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.8996236752948654</v>
+        <v>-4.2407384369426246</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>16.203305680673893</v>
+        <v>18.251368055854293</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.801031610578177</v>
+        <v>-21.452326132083876</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.500472534190614</v>
+        <v>-20.687885646113529</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>14.208621395899783</v>
+        <v>3.9958233579036957</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>16.6848854046629</v>
+        <v>-13.085307904018334</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.670728392993279</v>
+        <v>-6.43661895086775</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.0861478056327236</v>
+        <v>-15.133402933532897</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.647059105759601</v>
+        <v>8.1845586512162569</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.1561474939156788</v>
+        <v>11.781284401877379</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>13.385012411117451</v>
+        <v>15.887810941559657</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>23.318834493662443</v>
+        <v>-16.107297340817667</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4000017544098036</v>
+        <v>11.697127715454705</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>12.807197233113335</v>
+        <v>-9.2258674294850014</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9178434398094879</v>
+        <v>23.32659226639182</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.760581278459153</v>
+        <v>-0.23249730353056464</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>-16.694241206556534</v>
+        <v>8.0765640683224831</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>15.096426251899928</v>
+        <v>18.236745966660514</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.3620264495787566</v>
+        <v>-19.386320990802563</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.4465884858648259</v>
+        <v>2.3270146607019981</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.118265580833587</v>
+        <v>11.606300260466426</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.524437617854211</v>
+        <v>21.103715954756417</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8713975237674916</v>
+        <v>-1.9636416500140434</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>-16.643985361714719</v>
+        <v>17.308558436343652</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.700604462850009</v>
+        <v>-20.949425660914599</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.602882973167064</v>
+        <v>8.2238689589132434</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.230353234900786</v>
+        <v>-2.0941522623256503</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.19216374124613</v>
+        <v>-1.7466071097800118</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1727444457553631</v>
+        <v>3.7715219997948353</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.3415235006657209</v>
+        <v>19.928192354812261</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.229038985006106</v>
+        <v>-6.973881631870583</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.662803513504626</v>
+        <v>-10.189240533705918</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.831936278293952</v>
+        <v>-15.082323633300598</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>21.802582432569558</v>
+        <v>3.4408865943511486</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>14.153433907016016</v>
+        <v>21.727935597768287</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.7338176423678</v>
+        <v>-22.346386466034474</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.455073658487837</v>
+        <v>22.114069553375451</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.456588502123441</v>
+        <v>15.49400766824067</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.613179018436618</v>
+        <v>20.764486532184634</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5399507889715238</v>
+        <v>-22.057919798367127</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.428527674482627</v>
+        <v>-16.668892533225971</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.9538404887798428</v>
+        <v>-8.5820673398806626</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.050903775267678</v>
+        <v>19.922417217695461</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.262928974108178</v>
+        <v>-19.71769388338922</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.4332189537600861</v>
+        <v>5.0499387499274029</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18541560051460593</v>
+        <v>10.659578797637629</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3858090582309472</v>
+        <v>16.431597481936727</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3013995901810773</v>
+        <v>-10.382583985622629</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3730007880731527</v>
+        <v>19.663591890523143</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.7969386460954873</v>
+        <v>20.552713227040883</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>19.264611809874637</v>
+        <v>-1.5648758438467318</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.4538128409334483</v>
+        <v>3.0687914194754242</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.4871285913806993</v>
+        <v>10.480610898085239</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>12.499001714434954</v>
+        <v>-11.424702780913282</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.9301366017410935</v>
+        <v>19.487761986987081</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>18.916430512692465</v>
+        <v>-8.0348256227647141</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>16.393829715193291</v>
+        <v>4.6754354699179821</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.7824158246597364</v>
+        <v>-23.159297080663737</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.393380924777565</v>
+        <v>-21.106954430702139</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.9191242910470692</v>
+        <v>-13.829717483533871</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.380231620279552</v>
+        <v>-13.479811136529641</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.849548931793342</v>
+        <v>14.973978392817585</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>16.700204200823457</v>
+        <v>-23.575477562191764</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.0735637169780823</v>
+        <v>-22.638766975435409</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>21.061997933742141</v>
+        <v>14.261887810355766</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.5100363691880627</v>
+        <v>18.50553726111881</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.991817558195962</v>
+        <v>-19.138928749883295</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="1"/>
-        <v>23.792385652519414</v>
+        <v>15.752845811751349</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.739917641011603</v>
+        <v>13.259315316028996</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>19.123418284802845</v>
+        <v>-11.349456501852712</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.185602675562812</v>
+        <v>-3.8297521467526003</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.39224960190568581</v>
+        <v>21.909593489460697</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1346066681797318</v>
+        <v>-24.764456674605821</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9373840512305236</v>
+        <v>7.8255794600081288</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.4292259864556272</v>
+        <v>-8.295242936492798</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="1"/>
-        <v>24.847839149620476</v>
+        <v>-23.591612092876517</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>16.165613072174409</v>
+        <v>-24.55373196631685</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>-20.126622166184376</v>
+        <v>11.699093029873985</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>21.927065826982037</v>
+        <v>-11.047317388854527</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.848129203579983</v>
+        <v>24.432729478605687</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.979112704699112</v>
+        <v>-6.3320363725406459</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6529081975346536</v>
+        <v>-22.531335688566717</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="1"/>
-        <v>9.0683933829374297</v>
+        <v>0.44547073973989626</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/QRDecompTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/QRDecompTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="105" windowWidth="19440" windowHeight="11040" activeTab="1"/>
+    <workbookView xWindow="4230" yWindow="105" windowWidth="19485" windowHeight="11040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4x4" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="9x3" sheetId="4" r:id="rId3"/>
     <sheet name="Degen 8x3" sheetId="5" r:id="rId4"/>
     <sheet name="rand" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1764,7 +1765,7 @@
   <dimension ref="A1:AG67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD8"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12461,1024 +12462,1036 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">50*RAND()-25</f>
-        <v>-12.325089327521422</v>
+        <v>-0.8220818159950305</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:H16" ca="1" si="0">50*RAND()-25</f>
-        <v>17.876634164595131</v>
+        <v>11.294789469195059</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3469889660289525</v>
+        <v>3.3541011579532487</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.416113822881293</v>
+        <v>-3.9790627977975603</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>-20.28803114614518</v>
+        <v>-6.6984650793423981</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9140003682091091</v>
+        <v>16.740958067502575</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.1646695604329551</v>
+        <v>-0.15502424240626667</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5136939752717211</v>
+        <v>1.7331827362430836</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:H30" ca="1" si="1">50*RAND()-25</f>
-        <v>-8.7055425368117234</v>
+        <v>7.9371142702586752</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.463494090905371</v>
+        <v>-13.497542170937932</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.988218836361774</v>
+        <v>5.8705055637641443</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.39366222247223</v>
+        <v>-22.222259691206414</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.01979566886606</v>
+        <v>-14.353998453417915</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.154081886766143</v>
+        <v>8.616907992559355</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.598263905692502</v>
+        <v>-17.103207335353293</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.380381634424012</v>
+        <v>23.407576670641689</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>16.795258761442675</v>
+        <v>-23.109723704562533</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.3256229100364045</v>
+        <v>-14.150305219039444</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>21.451682182213396</v>
+        <v>-5.730538406974361</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>13.84131006331161</v>
+        <v>-14.539953565283259</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.28624387242985705</v>
+        <v>23.252186851696557</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>17.3167434135745</v>
+        <v>11.819299691368613</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6262847945894521</v>
+        <v>-24.914406809559946</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3780953820738944</v>
+        <v>-10.583866666626236</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1908226507250603</v>
+        <v>16.764963522158098</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>19.395201103384302</v>
+        <v>-11.378084562171864</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.592799125861379</v>
+        <v>-24.112751555054956</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>13.055532621837223</v>
+        <v>10.399757670643908</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.682386589266887</v>
+        <v>9.8360412256235534</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.340419184679998</v>
+        <v>-24.250329454490032</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>21.520741753961886</v>
+        <v>-18.274038791866669</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-23.746864527686778</v>
+        <v>-18.617906177263254</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.697181874682805</v>
+        <v>10.42617694357277</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>20.317724741130363</v>
+        <v>-10.24266108689938</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.059007332301519</v>
+        <v>20.296189418659374</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5277470556251131</v>
+        <v>2.6274868282502197</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.0091343949419347</v>
+        <v>-2.4366596138573939</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.25864737517167</v>
+        <v>-5.8380774082694806</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.158077820277715</v>
+        <v>10.640486432683019</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.389617882513591</v>
+        <v>-15.309435227768397</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.1008956185067689</v>
+        <v>-13.956593322349875</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.1726642236684022</v>
+        <v>-3.1278401748945761</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.1089104436128991</v>
+        <v>-15.71875296366545</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.833333655217034</v>
+        <v>11.213727926330179</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2703378884896281</v>
+        <v>-4.9338345357840545</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>-23.024124922828026</v>
+        <v>-24.097764276518095</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>23.67944201144924</v>
+        <v>-20.413219039631937</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>16.786194465512089</v>
+        <v>-1.3764382631557162</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>10.477966638597621</v>
+        <v>-14.365726754369456</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>21.131520248150018</v>
+        <v>-19.740901470531831</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.936989576060924</v>
+        <v>10.17240510276752</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.80095701363592653</v>
+        <v>19.534405770913487</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.05018672126333</v>
+        <v>-17.886641542853255</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.274834375680502</v>
+        <v>-6.1168495511001382</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.5174119748030144</v>
+        <v>-3.9957303046690811</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5408814852001953</v>
+        <v>-3.7162104957834288</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.831782598619142</v>
+        <v>15.48320132438657</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9785354201492495</v>
+        <v>19.456387158919846</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>16.12439635615052</v>
+        <v>5.2035402913064424</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.5137142744967811</v>
+        <v>14.657226156401023</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.113413192286131</v>
+        <v>-7.5682331824145521</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.9547112063249976</v>
+        <v>10.475993995618573</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.082966507848136</v>
+        <v>-19.978154653935441</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>21.446601013849957</v>
+        <v>0.69323303063105257</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>6.390159451210458</v>
+        <v>10.041309194542912</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>14.488377909182091</v>
+        <v>-17.792967549436494</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.631664068490256</v>
+        <v>-15.207217947957801</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>10.763135060714298</v>
+        <v>24.997444702839346</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.6786369968473061</v>
+        <v>3.9856064594717573</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.71724505193572</v>
+        <v>13.81397385225371</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.4102730989127821</v>
+        <v>-16.415591792600694</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3246436669243877</v>
+        <v>2.298198331998325</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6636566970384514</v>
+        <v>23.175274298159891</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>17.954677494734213</v>
+        <v>17.301170933987486</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>14.550627827964092</v>
+        <v>-3.1241443608228892</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>17.128015369013895</v>
+        <v>-17.416833217560296</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>13.099950841729154</v>
+        <v>-0.65317226498767766</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.5236310831699083</v>
+        <v>-14.82327427225108</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.9361008230151775</v>
+        <v>15.288201177127817</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0295510950594888</v>
+        <v>23.840008428810258</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.7979949698993849</v>
+        <v>-5.3031539408620105</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>11.669044161224207</v>
+        <v>-20.509472744802267</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.709485781011544</v>
+        <v>12.147990961482705</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.6929303992490539</v>
+        <v>-19.770837557227729</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.3884841523256597</v>
+        <v>5.7680863997518266</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3978942427170082</v>
+        <v>-4.5035938996744456</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>21.586999568517065</v>
+        <v>11.099194088799976</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6591085680606739</v>
+        <v>6.4717130894425452</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.527146899782306</v>
+        <v>-2.9649695032204448</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.018397683751267</v>
+        <v>-12.798669593341266</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8060564532879155</v>
+        <v>4.7304089095513433</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9279331173415883</v>
+        <v>2.2135002485863815</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.47371119431002</v>
+        <v>20.14095177764915</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.613806809482579</v>
+        <v>-20.02939991333837</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.220766238252757</v>
+        <v>7.8466423391273352</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.498692900705441</v>
+        <v>4.8565761789008413</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.32837774696749</v>
+        <v>-20.177457968337919</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.6462330849414</v>
+        <v>20.377426077915992</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.514497713283706</v>
+        <v>14.660789176352651</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>24.249500793993597</v>
+        <v>3.2734516707351631</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3449092540238929</v>
+        <v>4.7169987972987037</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.279790246743865</v>
+        <v>-2.3031360829308731</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>18.06800961518428</v>
+        <v>-10.535930051219704</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9311829520538488</v>
+        <v>-7.6779949810943755</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.0589682034564198</v>
+        <v>5.2971925570164728</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.383651312203359</v>
+        <v>13.322300189845514</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.525286691925118</v>
+        <v>-11.479121655435131</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>21.732756290456059</v>
+        <v>24.321115238650194</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>16.479431878863068</v>
+        <v>21.743017136387415</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52440862109973096</v>
+        <v>5.4610806735277393</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>-22.751571501704081</v>
+        <v>23.597766087828006</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>15.275332681323562</v>
+        <v>-15.384783138550851</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52580447242554129</v>
+        <v>-10.322390494787864</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.54102166793659</v>
+        <v>-6.44511135730232</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>14.410870981849236</v>
+        <v>-6.8062890905619504</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>-23.723521230178722</v>
+        <v>12.163136422074352</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>20.829580638466247</v>
+        <v>-5.5205691887927415</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>21.324343494946199</v>
+        <v>-1.0298225454513243</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>23.087675602892297</v>
+        <v>-6.8577727374912811</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4262946600611528</v>
+        <v>20.852905963882272</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.76507675622258</v>
+        <v>-6.5647502436192831</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>3.208390658676457</v>
+        <v>14.789020601875265</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.7414603832849913</v>
+        <v>11.709615303073932</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.238448423860195</v>
+        <v>-23.345929356518987</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>-23.330853164001319</v>
+        <v>4.4261765567861211</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.83606301575546738</v>
+        <v>-21.304319557891162</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.4587102143474659</v>
+        <v>-12.124945558218043</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>23.821828799342867</v>
+        <v>-21.500539063892194</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>18.140618333749181</v>
+        <v>-6.2321648310633933</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.400454560949804</v>
+        <v>-0.2031361075825302</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.466318622492089</v>
+        <v>5.71513046696559E-2</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>14.370085112301439</v>
+        <v>19.529725445216734</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>19.402657032105559</v>
+        <v>-24.702056136576367</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.1723820067390989</v>
+        <v>9.5054382897343288</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>15.970310588935419</v>
+        <v>20.507281139747171</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51733967584218732</v>
+        <v>16.67447044793257</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.6730838236149523</v>
+        <v>-3.7409519838165544</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6848521931328762</v>
+        <v>12.479291759981571</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1895704056069647</v>
+        <v>-2.704174128529889</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>11.869140164318189</v>
+        <v>19.963261620711506</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.1654806873623045</v>
+        <v>-1.9088812200038348</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.344293759411627</v>
+        <v>-13.814856519138912</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>23.094694921861723</v>
+        <v>11.557885162844492</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>15.721028440867855</v>
+        <v>6.5019952122703621</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5595044942507386</v>
+        <v>24.82661940708558</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>16.714016158112941</v>
+        <v>11.434432585678003</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.33829709404996</v>
+        <v>-6.2938878271909431</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.18441396175783</v>
+        <v>2.8999572376824361</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.527066334455039</v>
+        <v>13.649474539687233</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9880208504494661</v>
+        <v>20.474136942346085</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>17.547533490710535</v>
+        <v>14.62802170120429</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.355609372399329</v>
+        <v>-24.104132533282137</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.1975641539303723</v>
+        <v>21.734824282170791</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.8524187233590013</v>
+        <v>-18.544854944830401</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>10.364207168861824</v>
+        <v>11.732929448775032</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.8959608532707577</v>
+        <v>-7.1053693859419056</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>16.03799123307077</v>
+        <v>16.896708773077883</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.2407384369426246</v>
+        <v>-0.62024562846484343</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>18.251368055854293</v>
+        <v>-5.9560751367563114</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.452326132083876</v>
+        <v>-5.3685861031025119</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>-20.687885646113529</v>
+        <v>17.258253490661644</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9958233579036957</v>
+        <v>-5.4988276406491678</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.085307904018334</v>
+        <v>-9.6495900196366549</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.43661895086775</v>
+        <v>-3.9907126504410861</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.133402933532897</v>
+        <v>-0.50617439614865489</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1845586512162569</v>
+        <v>15.517012063777244</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>11.781284401877379</v>
+        <v>18.938055421397181</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>15.887810941559657</v>
+        <v>-9.4834378185863883</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>-16.107297340817667</v>
+        <v>22.693498482146325</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>11.697127715454705</v>
+        <v>-19.432582841620956</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.2258674294850014</v>
+        <v>-13.167669182459557</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>23.32659226639182</v>
+        <v>9.9479751982171436</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.23249730353056464</v>
+        <v>23.791648539912771</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0765640683224831</v>
+        <v>-15.231329506737968</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>18.236745966660514</v>
+        <v>-3.1303172632197942</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.386320990802563</v>
+        <v>-4.0831977656110467</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3270146607019981</v>
+        <v>-17.284245535819643</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>11.606300260466426</v>
+        <v>-4.6780493382365229</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>21.103715954756417</v>
+        <v>-11.533595755602349</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.9636416500140434</v>
+        <v>1.1222477650159881</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>17.308558436343652</v>
+        <v>11.323001881696264</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>-20.949425660914599</v>
+        <v>19.947571590883896</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2238689589132434</v>
+        <v>-19.676064961816724</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.0941522623256503</v>
+        <v>23.231400525845594</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7466071097800118</v>
+        <v>-4.9313434841993526</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7715219997948353</v>
+        <v>8.2064600232490221</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>19.928192354812261</v>
+        <v>-3.0378109461208354</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.973881631870583</v>
+        <v>-20.269630717669813</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.189240533705918</v>
+        <v>-11.590103228830051</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.082323633300598</v>
+        <v>-20.83933130128608</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4408865943511486</v>
+        <v>6.0304523164291197</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>21.727935597768287</v>
+        <v>-0.44510329664832327</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.346386466034474</v>
+        <v>13.407778115889833</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>22.114069553375451</v>
+        <v>14.09231583407658</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>15.49400766824067</v>
+        <v>-20.496009141913184</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>20.764486532184634</v>
+        <v>6.6804132853585827</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.057919798367127</v>
+        <v>22.294766750386977</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>-16.668892533225971</v>
+        <v>-12.518300552022577</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.5820673398806626</v>
+        <v>10.84514490081051</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>19.922417217695461</v>
+        <v>8.8862827537948874</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.71769388338922</v>
+        <v>-19.887625167689542</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0499387499274029</v>
+        <v>-4.5106408175130177</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>10.659578797637629</v>
+        <v>20.09177324105729</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>16.431597481936727</v>
+        <v>-5.6533548818794479</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.382583985622629</v>
+        <v>-24.387474664743579</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>19.663591890523143</v>
+        <v>16.203250979838757</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>20.552713227040883</v>
+        <v>23.94854083874894</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.5648758438467318</v>
+        <v>23.8150980409795</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0687914194754242</v>
+        <v>19.276213382220675</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>10.480610898085239</v>
+        <v>-11.034167869900962</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.424702780913282</v>
+        <v>23.555310588323245</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>19.487761986987081</v>
+        <v>-9.4445644530758202</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.0348256227647141</v>
+        <v>-22.594514559928967</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6754354699179821</v>
+        <v>-20.195539245091965</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.159297080663737</v>
+        <v>4.7308944611400854</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.106954430702139</v>
+        <v>10.717431549908952</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.829717483533871</v>
+        <v>-0.29806803830226158</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.479811136529641</v>
+        <v>-23.193466983847699</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>14.973978392817585</v>
+        <v>16.681204181585592</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.575477562191764</v>
+        <v>-16.491046730324967</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.638766975435409</v>
+        <v>14.507060133968174</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>14.261887810355766</v>
+        <v>-3.0633272591458436</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>18.50553726111881</v>
+        <v>4.644267733260822</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.138928749883295</v>
+        <v>-5.5037102495995818</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="1"/>
-        <v>15.752845811751349</v>
+        <v>5.6174693243813074</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>13.259315316028996</v>
+        <v>11.34856910403289</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.349456501852712</v>
+        <v>-3.1202138087236477</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.8297521467526003</v>
+        <v>24.049646206875479</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>21.909593489460697</v>
+        <v>-3.7114130386850128</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.764456674605821</v>
+        <v>-23.420682254425024</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8255794600081288</v>
+        <v>-1.8778854204729853</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.295242936492798</v>
+        <v>0.31730301316755316</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.591612092876517</v>
+        <v>6.7658930990064583</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.55373196631685</v>
+        <v>14.551442390804041</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>11.699093029873985</v>
+        <v>-18.01294873444213</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.047317388854527</v>
+        <v>-22.066111688284558</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>24.432729478605687</v>
+        <v>-6.9377978441458446</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.3320363725406459</v>
+        <v>-2.2870011692364862</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.531335688566717</v>
+        <v>-2.5105569224858222</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44547073973989626</v>
+        <v>11.374968569400664</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>